--- a/hongming/file/車輛資訊.xlsx
+++ b/hongming/file/車輛資訊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa316\Desktop\弘明\跟車點名表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DC5AF0-F50C-49E8-97D6-7F29C9D32972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669581EE-B994-4A5C-8DC5-A4DFF80A6B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC916EDE-40CE-4311-AC1F-BC9971B68484}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="76">
   <si>
     <t>暑期營A車(大巴)</t>
   </si>
@@ -309,11 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>司機：KAA-5852張博堯
-0981-158225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>司機：171-W2李志宏
 0981-103610</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,20 +321,429 @@
   </si>
   <si>
     <t>隨車老師：
-黃呈任老師0953009323</t>
+鄭德龢老師0984262063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/10(一)+7/12(三)+7/13(四)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一週</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二週</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>隨車老師：
-鄭德龢老師0984262063</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+丁美玲老師0933508505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司機：169-W2張博堯
+0916-881089</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司機：680-V7鄭進添
+0938-359600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司機：169-W2蕭漢中
+0916-881089</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暑期營員林路線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 3"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>1.彰南運動中心</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彰化縣員林市員林大道二段235號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 3"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2.草屯弘明幼兒園</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草屯鎮碧峰路438巷161號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司機：梁佳佑老師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隨車老師：
+林玉衡老師0958246586</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 3"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>3.清水岩寺</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清水岩寺登山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 3"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>4.清水岩寺</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二週
+清水岩寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/11(二)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 台中路線(星期二路線)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 南投路線(星期二路線)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 彰化霧峰路線(星期二路線)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/17(一)+7/19(三)+7/20(四)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三週</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 3"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2.新南投弘明幼兒園</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 3"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>3.草屯弘明幼兒園</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隨車老師：
+陳宥君老師0905373522</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 3"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>5.清水岩寺</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 3"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>4.彰南運動中心</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暑期營員林草屯專車路線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專車只有早上，下午大巴將直接經過彰南運動中心下車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不開</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>員林站照常於07:40前至彰南運動中心等車，將由員林草屯專車載至草屯弘明上大巴，
+放學時大巴會停彰南運動中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二週
+竹崙山
+志騰山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 3"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>4.竹崙山、志騰山</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 3"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>5.竹崙山、志騰山</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 3"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>3.竹崙山、志騰山</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 台中路線(星期五路線)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 南投路線(星期五路線)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 彰化霧峰路線(星期五路線)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/14(五)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 3"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>4.竹山弘明幼兒園</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隨車老師：
+何依靜老師0919601799</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -390,8 +794,46 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +855,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,7 +989,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -674,16 +1128,220 @@
     <xf numFmtId="20" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -695,75 +1353,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -781,6 +1370,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1096,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E07FBC0-B37D-4CCF-9B89-2E6EE3F2E4AE}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:L176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O119" sqref="O119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1107,10 +1720,12 @@
     <col min="1" max="1" width="26.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.81640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="12.6328125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="5" max="13" width="8.7265625" style="1"/>
+    <col min="14" max="14" width="8.7265625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1119,15 +1734,20 @@
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
       <c r="I1" s="29"/>
-    </row>
-    <row r="2" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J1" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+    </row>
+    <row r="2" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1140,14 +1760,17 @@
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="120"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1160,12 +1783,15 @@
       <c r="D3" s="6">
         <v>0.72569444444444453</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E3" s="118"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -1178,12 +1804,15 @@
       <c r="D4" s="11">
         <v>0.71875</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
-    </row>
-    <row r="5" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="120"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+    </row>
+    <row r="5" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1196,60 +1825,78 @@
       <c r="D5" s="10">
         <v>0.70138888888888884</v>
       </c>
-      <c r="E5" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E5" s="121" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="123"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="26"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="52"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E6" s="118"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="120"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="9"/>
       <c r="B7" s="44"/>
       <c r="C7" s="10"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E7" s="118"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="120"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="9"/>
       <c r="B8" s="8"/>
       <c r="C8" s="4"/>
       <c r="D8" s="45"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="52"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E8" s="118"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="120"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="9"/>
       <c r="B9" s="26"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="81"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E9" s="124"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="126"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="130"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
-    </row>
-    <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="130"/>
+    </row>
+    <row r="11" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
@@ -1258,15 +1905,18 @@
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="89"/>
       <c r="I11" s="29"/>
-    </row>
-    <row r="12" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130"/>
+    </row>
+    <row r="12" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
         <v>4</v>
       </c>
@@ -1279,14 +1929,17 @@
       <c r="D12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="55"/>
-    </row>
-    <row r="13" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="92"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130"/>
+    </row>
+    <row r="13" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="20" t="s">
         <v>24</v>
       </c>
@@ -1299,12 +1952,15 @@
       <c r="D13" s="27">
         <v>0.73611111111111116</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="55"/>
-    </row>
-    <row r="14" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="90"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="92"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="130"/>
+    </row>
+    <row r="14" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="23" t="s">
         <v>23</v>
       </c>
@@ -1317,12 +1973,15 @@
       <c r="D14" s="24">
         <v>0.72222222222222221</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="55"/>
-    </row>
-    <row r="15" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="90"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="130"/>
+    </row>
+    <row r="15" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="20" t="s">
         <v>16</v>
       </c>
@@ -1335,14 +1994,17 @@
       <c r="D15" s="25">
         <v>0.71527777777777779</v>
       </c>
-      <c r="E15" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="64"/>
-    </row>
-    <row r="16" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="98"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="130"/>
+    </row>
+    <row r="16" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23" t="s">
         <v>15</v>
       </c>
@@ -1355,30 +2017,39 @@
       <c r="D16" s="25">
         <v>0.70138888888888884</v>
       </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="55"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92"/>
       <c r="I16" s="29"/>
-    </row>
-    <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+    </row>
+    <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23"/>
       <c r="B17" s="28"/>
       <c r="C17" s="24"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="67"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E17" s="93"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="95"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+    </row>
+    <row r="19" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A19" s="31" t="s">
         <v>20</v>
       </c>
@@ -1387,15 +2058,18 @@
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
       <c r="I19" s="29"/>
-    </row>
-    <row r="20" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J19" s="130"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="130"/>
+    </row>
+    <row r="20" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="33" t="s">
         <v>4</v>
       </c>
@@ -1408,14 +2082,17 @@
       <c r="D20" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="58"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E20" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="130"/>
+    </row>
+    <row r="21" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="36" t="s">
         <v>25</v>
       </c>
@@ -1426,14 +2103,17 @@
         <v>0.31944444444444448</v>
       </c>
       <c r="D21" s="39">
-        <v>0.74652777777777779</v>
-      </c>
-      <c r="E21" s="56"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="58"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="75"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="130"/>
+      <c r="L21" s="130"/>
+    </row>
+    <row r="22" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="40" t="s">
         <v>26</v>
       </c>
@@ -1444,14 +2124,17 @@
         <v>0.34027777777777773</v>
       </c>
       <c r="D22" s="42">
-        <v>0.71875</v>
-      </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="61"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="78"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="130"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="40" t="s">
         <v>2</v>
       </c>
@@ -1464,48 +2147,2449 @@
       <c r="D23" s="41">
         <v>0.70138888888888884</v>
       </c>
-      <c r="E23" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="69"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E23" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="81"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="130"/>
+      <c r="L23" s="130"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="36"/>
       <c r="B24" s="43"/>
       <c r="C24" s="41"/>
       <c r="D24" s="41"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="72"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="130"/>
+      <c r="L24" s="130"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="40"/>
       <c r="B25" s="43"/>
       <c r="C25" s="38"/>
       <c r="D25" s="41"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="75"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="87"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="130"/>
+      <c r="L25" s="130"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="C26" s="14"/>
     </row>
+    <row r="27" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="116" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="117"/>
+      <c r="J29" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="115"/>
+      <c r="L29" s="115"/>
+    </row>
+    <row r="30" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="120"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="E31" s="118"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="120"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="115"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A32" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0.71875</v>
+      </c>
+      <c r="E32" s="118"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="120"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="115"/>
+    </row>
+    <row r="33" spans="1:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E33" s="121" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="123"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="115"/>
+    </row>
+    <row r="34" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="120"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="115"/>
+    </row>
+    <row r="35" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="9"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="120"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="115"/>
+    </row>
+    <row r="36" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="9"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="120"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="115"/>
+    </row>
+    <row r="37" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="9"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="124"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="126"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="115"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="115"/>
+    </row>
+    <row r="39" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A39" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="89"/>
+      <c r="J39" s="115"/>
+      <c r="K39" s="115"/>
+      <c r="L39" s="115"/>
+    </row>
+    <row r="40" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="92"/>
+      <c r="J40" s="115"/>
+      <c r="K40" s="115"/>
+      <c r="L40" s="115"/>
+    </row>
+    <row r="41" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="22">
+        <v>0.3125</v>
+      </c>
+      <c r="D41" s="27">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E41" s="90"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="92"/>
+      <c r="J41" s="115"/>
+      <c r="K41" s="115"/>
+      <c r="L41" s="115"/>
+    </row>
+    <row r="42" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="24">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="D42" s="24">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E42" s="90"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="92"/>
+      <c r="J42" s="115"/>
+      <c r="K42" s="115"/>
+      <c r="L42" s="115"/>
+    </row>
+    <row r="43" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="24">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D43" s="25">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E43" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="98"/>
+      <c r="J43" s="115"/>
+      <c r="K43" s="115"/>
+      <c r="L43" s="115"/>
+    </row>
+    <row r="44" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="24">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="D44" s="25">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E44" s="90"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="92"/>
+      <c r="J44" s="115"/>
+      <c r="K44" s="115"/>
+      <c r="L44" s="115"/>
+    </row>
+    <row r="45" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="23"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="94"/>
+      <c r="H45" s="95"/>
+      <c r="J45" s="115"/>
+      <c r="K45" s="115"/>
+      <c r="L45" s="115"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="J46" s="115"/>
+      <c r="K46" s="115"/>
+      <c r="L46" s="115"/>
+    </row>
+    <row r="47" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A47" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="115"/>
+      <c r="K47" s="115"/>
+      <c r="L47" s="115"/>
+    </row>
+    <row r="48" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="75"/>
+      <c r="J48" s="115"/>
+      <c r="K48" s="115"/>
+      <c r="L48" s="115"/>
+    </row>
+    <row r="49" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="38">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D49" s="39">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="E49" s="73"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="75"/>
+      <c r="J49" s="115"/>
+      <c r="K49" s="115"/>
+      <c r="L49" s="115"/>
+    </row>
+    <row r="50" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="41">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D50" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E50" s="76"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="78"/>
+      <c r="J50" s="115"/>
+      <c r="K50" s="115"/>
+      <c r="L50" s="115"/>
+    </row>
+    <row r="51" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="38">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D51" s="41">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E51" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="80"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="81"/>
+      <c r="J51" s="115"/>
+      <c r="K51" s="115"/>
+      <c r="L51" s="115"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A52" s="36"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="84"/>
+      <c r="J52" s="115"/>
+      <c r="K52" s="115"/>
+      <c r="L52" s="115"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A53" s="40"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="87"/>
+      <c r="J53" s="115"/>
+      <c r="K53" s="115"/>
+      <c r="L53" s="115"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C54" s="14"/>
+      <c r="J54" s="115"/>
+      <c r="K54" s="115"/>
+      <c r="L54" s="115"/>
+    </row>
+    <row r="55" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A55" s="127" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="127"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="106" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="115"/>
+      <c r="K55" s="115"/>
+      <c r="L55" s="115"/>
+    </row>
+    <row r="56" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="100"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="101"/>
+      <c r="J56" s="115"/>
+      <c r="K56" s="115"/>
+      <c r="L56" s="115"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A57" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="54">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D57" s="55">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E57" s="99"/>
+      <c r="F57" s="100"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="101"/>
+      <c r="J57" s="115"/>
+      <c r="K57" s="115"/>
+      <c r="L57" s="115"/>
+    </row>
+    <row r="58" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="57">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D58" s="58">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E58" s="102"/>
+      <c r="F58" s="103"/>
+      <c r="G58" s="103"/>
+      <c r="H58" s="104"/>
+      <c r="J58" s="115"/>
+      <c r="K58" s="115"/>
+      <c r="L58" s="115"/>
+    </row>
+    <row r="59" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="56"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" s="106"/>
+      <c r="G59" s="106"/>
+      <c r="H59" s="107"/>
+      <c r="J59" s="115"/>
+      <c r="K59" s="115"/>
+      <c r="L59" s="115"/>
+    </row>
+    <row r="60" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="52"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="109"/>
+      <c r="G60" s="109"/>
+      <c r="H60" s="110"/>
+      <c r="J60" s="115"/>
+      <c r="K60" s="115"/>
+      <c r="L60" s="115"/>
+    </row>
+    <row r="61" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="56"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="111"/>
+      <c r="F61" s="112"/>
+      <c r="G61" s="112"/>
+      <c r="H61" s="113"/>
+      <c r="J61" s="115"/>
+      <c r="K61" s="115"/>
+      <c r="L61" s="115"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C62" s="14"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+    </row>
+    <row r="63" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+    </row>
+    <row r="65" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A65" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65" s="116"/>
+      <c r="G65" s="116"/>
+      <c r="H65" s="117"/>
+      <c r="J65" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="K65" s="115"/>
+      <c r="L65" s="115"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" s="119"/>
+      <c r="G66" s="119"/>
+      <c r="H66" s="120"/>
+      <c r="J66" s="115"/>
+      <c r="K66" s="115"/>
+      <c r="L66" s="115"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A67" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E67" s="118"/>
+      <c r="F67" s="119"/>
+      <c r="G67" s="119"/>
+      <c r="H67" s="120"/>
+      <c r="J67" s="115"/>
+      <c r="K67" s="115"/>
+      <c r="L67" s="115"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A68" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="10">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D68" s="11">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="E68" s="118"/>
+      <c r="F68" s="119"/>
+      <c r="G68" s="119"/>
+      <c r="H68" s="120"/>
+      <c r="J68" s="115"/>
+      <c r="K68" s="115"/>
+      <c r="L68" s="115"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A69" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E69" s="121" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" s="122"/>
+      <c r="G69" s="122"/>
+      <c r="H69" s="123"/>
+      <c r="J69" s="115"/>
+      <c r="K69" s="115"/>
+      <c r="L69" s="115"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A70" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E70" s="118"/>
+      <c r="F70" s="119"/>
+      <c r="G70" s="119"/>
+      <c r="H70" s="120"/>
+      <c r="J70" s="115"/>
+      <c r="K70" s="115"/>
+      <c r="L70" s="115"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A71" s="9"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="118"/>
+      <c r="F71" s="119"/>
+      <c r="G71" s="119"/>
+      <c r="H71" s="120"/>
+      <c r="J71" s="115"/>
+      <c r="K71" s="115"/>
+      <c r="L71" s="115"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A72" s="9"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="118"/>
+      <c r="F72" s="119"/>
+      <c r="G72" s="119"/>
+      <c r="H72" s="120"/>
+      <c r="J72" s="115"/>
+      <c r="K72" s="115"/>
+      <c r="L72" s="115"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A73" s="9"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="124"/>
+      <c r="F73" s="125"/>
+      <c r="G73" s="125"/>
+      <c r="H73" s="126"/>
+      <c r="J73" s="115"/>
+      <c r="K73" s="115"/>
+      <c r="L73" s="115"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="J74" s="115"/>
+      <c r="K74" s="115"/>
+      <c r="L74" s="115"/>
+    </row>
+    <row r="75" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A75" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="F75" s="88"/>
+      <c r="G75" s="88"/>
+      <c r="H75" s="89"/>
+      <c r="J75" s="115"/>
+      <c r="K75" s="115"/>
+      <c r="L75" s="115"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A76" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" s="91"/>
+      <c r="G76" s="91"/>
+      <c r="H76" s="92"/>
+      <c r="J76" s="115"/>
+      <c r="K76" s="115"/>
+      <c r="L76" s="115"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A77" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="22">
+        <v>0.3125</v>
+      </c>
+      <c r="D77" s="27">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E77" s="90"/>
+      <c r="F77" s="91"/>
+      <c r="G77" s="91"/>
+      <c r="H77" s="92"/>
+      <c r="J77" s="115"/>
+      <c r="K77" s="115"/>
+      <c r="L77" s="115"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A78" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="24">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D78" s="25">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="E78" s="90"/>
+      <c r="F78" s="91"/>
+      <c r="G78" s="91"/>
+      <c r="H78" s="92"/>
+      <c r="J78" s="115"/>
+      <c r="K78" s="115"/>
+      <c r="L78" s="115"/>
+    </row>
+    <row r="79" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="24">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D79" s="24">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="E79" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" s="97"/>
+      <c r="G79" s="97"/>
+      <c r="H79" s="98"/>
+      <c r="J79" s="115"/>
+      <c r="K79" s="115"/>
+      <c r="L79" s="115"/>
+    </row>
+    <row r="80" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B80" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80" s="70">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="E80" s="90"/>
+      <c r="F80" s="91"/>
+      <c r="G80" s="91"/>
+      <c r="H80" s="92"/>
+      <c r="J80" s="115"/>
+      <c r="K80" s="115"/>
+      <c r="L80" s="115"/>
+    </row>
+    <row r="81" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E81" s="90"/>
+      <c r="F81" s="91"/>
+      <c r="G81" s="91"/>
+      <c r="H81" s="92"/>
+      <c r="J81" s="115"/>
+      <c r="K81" s="115"/>
+      <c r="L81" s="115"/>
+    </row>
+    <row r="82" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="132" t="s">
+        <v>65</v>
+      </c>
+      <c r="B82" s="133"/>
+      <c r="C82" s="133"/>
+      <c r="D82" s="133"/>
+      <c r="E82" s="90"/>
+      <c r="F82" s="91"/>
+      <c r="G82" s="91"/>
+      <c r="H82" s="92"/>
+      <c r="J82" s="115"/>
+      <c r="K82" s="115"/>
+      <c r="L82" s="115"/>
+    </row>
+    <row r="83" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="134"/>
+      <c r="B83" s="134"/>
+      <c r="C83" s="134"/>
+      <c r="D83" s="134"/>
+      <c r="E83" s="93"/>
+      <c r="F83" s="94"/>
+      <c r="G83" s="94"/>
+      <c r="H83" s="95"/>
+      <c r="J83" s="115"/>
+      <c r="K83" s="115"/>
+      <c r="L83" s="115"/>
+    </row>
+    <row r="84" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="67"/>
+      <c r="B84" s="68"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="65"/>
+      <c r="H84" s="65"/>
+      <c r="J84" s="115"/>
+      <c r="K84" s="115"/>
+      <c r="L84" s="115"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A85" s="66"/>
+      <c r="B85" s="66"/>
+      <c r="J85" s="115"/>
+      <c r="K85" s="115"/>
+      <c r="L85" s="115"/>
+    </row>
+    <row r="86" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A86" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="F86" s="80"/>
+      <c r="G86" s="80"/>
+      <c r="H86" s="81"/>
+      <c r="J86" s="115"/>
+      <c r="K86" s="115"/>
+      <c r="L86" s="115"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A87" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="F87" s="74"/>
+      <c r="G87" s="74"/>
+      <c r="H87" s="75"/>
+      <c r="J87" s="115"/>
+      <c r="K87" s="115"/>
+      <c r="L87" s="115"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A88" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="38">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D88" s="39">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="E88" s="73"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="74"/>
+      <c r="H88" s="75"/>
+      <c r="J88" s="115"/>
+      <c r="K88" s="115"/>
+      <c r="L88" s="115"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A89" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B89" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="41">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D89" s="42">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="E89" s="76"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="77"/>
+      <c r="H89" s="78"/>
+      <c r="J89" s="115"/>
+      <c r="K89" s="115"/>
+      <c r="L89" s="115"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A90" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" s="38"/>
+      <c r="D90" s="41">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E90" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="F90" s="80"/>
+      <c r="G90" s="80"/>
+      <c r="H90" s="81"/>
+      <c r="J90" s="115"/>
+      <c r="K90" s="115"/>
+      <c r="L90" s="115"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A91" s="36"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="82"/>
+      <c r="F91" s="83"/>
+      <c r="G91" s="83"/>
+      <c r="H91" s="84"/>
+      <c r="J91" s="115"/>
+      <c r="K91" s="115"/>
+      <c r="L91" s="115"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A92" s="40"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="86"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="87"/>
+      <c r="J92" s="115"/>
+      <c r="K92" s="115"/>
+      <c r="L92" s="115"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C93" s="14"/>
+      <c r="J93" s="115"/>
+      <c r="K93" s="115"/>
+      <c r="L93" s="115"/>
+    </row>
+    <row r="94" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A94" s="127" t="s">
+        <v>62</v>
+      </c>
+      <c r="B94" s="127"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="F94" s="106"/>
+      <c r="G94" s="106"/>
+      <c r="H94" s="107"/>
+      <c r="J94" s="115"/>
+      <c r="K94" s="115"/>
+      <c r="L94" s="115"/>
+    </row>
+    <row r="95" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" s="100"/>
+      <c r="G95" s="100"/>
+      <c r="H95" s="101"/>
+      <c r="J95" s="115"/>
+      <c r="K95" s="115"/>
+      <c r="L95" s="115"/>
+    </row>
+    <row r="96" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B96" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96" s="54">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D96" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="102"/>
+      <c r="F96" s="103"/>
+      <c r="G96" s="103"/>
+      <c r="H96" s="104"/>
+      <c r="J96" s="115"/>
+      <c r="K96" s="115"/>
+      <c r="L96" s="115"/>
+    </row>
+    <row r="97" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B97" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" s="57">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D97" s="58"/>
+      <c r="E97" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="F97" s="100"/>
+      <c r="G97" s="100"/>
+      <c r="H97" s="101"/>
+      <c r="J97" s="115"/>
+      <c r="K97" s="115"/>
+      <c r="L97" s="115"/>
+    </row>
+    <row r="98" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="56"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="57"/>
+      <c r="E98" s="99"/>
+      <c r="F98" s="100"/>
+      <c r="G98" s="100"/>
+      <c r="H98" s="101"/>
+      <c r="J98" s="115"/>
+      <c r="K98" s="115"/>
+      <c r="L98" s="115"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A99" s="128" t="s">
+        <v>63</v>
+      </c>
+      <c r="B99" s="128"/>
+      <c r="C99" s="128"/>
+      <c r="D99" s="129"/>
+      <c r="E99" s="99"/>
+      <c r="F99" s="100"/>
+      <c r="G99" s="100"/>
+      <c r="H99" s="101"/>
+      <c r="J99" s="46"/>
+      <c r="K99" s="46"/>
+      <c r="L99" s="46"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A100" s="62"/>
+      <c r="B100" s="63"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="64"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="J100" s="46"/>
+      <c r="K100" s="46"/>
+      <c r="L100" s="46"/>
+    </row>
+    <row r="102" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="104" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A104" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="116" t="s">
+        <v>73</v>
+      </c>
+      <c r="F104" s="116"/>
+      <c r="G104" s="116"/>
+      <c r="H104" s="117"/>
+      <c r="J104" s="114" t="s">
+        <v>66</v>
+      </c>
+      <c r="K104" s="115"/>
+      <c r="L104" s="115"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A105" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="F105" s="119"/>
+      <c r="G105" s="119"/>
+      <c r="H105" s="120"/>
+      <c r="J105" s="115"/>
+      <c r="K105" s="115"/>
+      <c r="L105" s="115"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A106" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="4">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="D106" s="6">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="E106" s="118"/>
+      <c r="F106" s="119"/>
+      <c r="G106" s="119"/>
+      <c r="H106" s="120"/>
+      <c r="J106" s="115"/>
+      <c r="K106" s="115"/>
+      <c r="L106" s="115"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A107" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="10">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D107" s="11">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E107" s="124"/>
+      <c r="F107" s="125"/>
+      <c r="G107" s="125"/>
+      <c r="H107" s="126"/>
+      <c r="J107" s="115"/>
+      <c r="K107" s="115"/>
+      <c r="L107" s="115"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A108" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="4">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D108" s="10">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="E108" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="F108" s="122"/>
+      <c r="G108" s="122"/>
+      <c r="H108" s="123"/>
+      <c r="J108" s="115"/>
+      <c r="K108" s="115"/>
+      <c r="L108" s="115"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A109" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B109" s="26"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E109" s="118"/>
+      <c r="F109" s="119"/>
+      <c r="G109" s="119"/>
+      <c r="H109" s="120"/>
+      <c r="J109" s="115"/>
+      <c r="K109" s="115"/>
+      <c r="L109" s="115"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A110" s="9"/>
+      <c r="B110" s="44"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="118"/>
+      <c r="F110" s="119"/>
+      <c r="G110" s="119"/>
+      <c r="H110" s="120"/>
+      <c r="J110" s="115"/>
+      <c r="K110" s="115"/>
+      <c r="L110" s="115"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A111" s="9"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="45"/>
+      <c r="E111" s="118"/>
+      <c r="F111" s="119"/>
+      <c r="G111" s="119"/>
+      <c r="H111" s="120"/>
+      <c r="J111" s="115"/>
+      <c r="K111" s="115"/>
+      <c r="L111" s="115"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A112" s="9"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="124"/>
+      <c r="F112" s="125"/>
+      <c r="G112" s="125"/>
+      <c r="H112" s="126"/>
+      <c r="J112" s="115"/>
+      <c r="K112" s="115"/>
+      <c r="L112" s="115"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A113" s="30"/>
+      <c r="B113" s="30"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="J113" s="115"/>
+      <c r="K113" s="115"/>
+      <c r="L113" s="115"/>
+    </row>
+    <row r="114" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A114" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="F114" s="88"/>
+      <c r="G114" s="88"/>
+      <c r="H114" s="89"/>
+      <c r="J114" s="115"/>
+      <c r="K114" s="115"/>
+      <c r="L114" s="115"/>
+    </row>
+    <row r="115" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="F115" s="91"/>
+      <c r="G115" s="91"/>
+      <c r="H115" s="92"/>
+      <c r="J115" s="115"/>
+      <c r="K115" s="115"/>
+      <c r="L115" s="115"/>
+    </row>
+    <row r="116" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B116" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C116" s="22">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D116" s="27">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E116" s="90"/>
+      <c r="F116" s="91"/>
+      <c r="G116" s="91"/>
+      <c r="H116" s="92"/>
+      <c r="J116" s="115"/>
+      <c r="K116" s="115"/>
+      <c r="L116" s="115"/>
+    </row>
+    <row r="117" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C117" s="24">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D117" s="24">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="E117" s="93"/>
+      <c r="F117" s="94"/>
+      <c r="G117" s="94"/>
+      <c r="H117" s="95"/>
+      <c r="J117" s="115"/>
+      <c r="K117" s="115"/>
+      <c r="L117" s="115"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A118" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" s="24">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="D118" s="25">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E118" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="F118" s="97"/>
+      <c r="G118" s="97"/>
+      <c r="H118" s="98"/>
+      <c r="J118" s="115"/>
+      <c r="K118" s="115"/>
+      <c r="L118" s="115"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A119" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B119" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="24">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D119" s="25">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="E119" s="90"/>
+      <c r="F119" s="91"/>
+      <c r="G119" s="91"/>
+      <c r="H119" s="92"/>
+      <c r="J119" s="115"/>
+      <c r="K119" s="115"/>
+      <c r="L119" s="115"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A120" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B120" s="28"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="25">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E120" s="90"/>
+      <c r="F120" s="91"/>
+      <c r="G120" s="91"/>
+      <c r="H120" s="92"/>
+      <c r="J120" s="115"/>
+      <c r="K120" s="115"/>
+      <c r="L120" s="115"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A121" s="20"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="93"/>
+      <c r="F121" s="94"/>
+      <c r="G121" s="94"/>
+      <c r="H121" s="95"/>
+      <c r="J121" s="115"/>
+      <c r="K121" s="115"/>
+      <c r="L121" s="115"/>
+    </row>
+    <row r="122" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A122" s="62"/>
+      <c r="B122" s="68"/>
+      <c r="C122" s="64"/>
+      <c r="D122" s="64"/>
+      <c r="E122" s="72"/>
+      <c r="F122" s="72"/>
+      <c r="G122" s="72"/>
+      <c r="H122" s="72"/>
+      <c r="J122" s="115"/>
+      <c r="K122" s="115"/>
+      <c r="L122" s="115"/>
+    </row>
+    <row r="123" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A123" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B123" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C123" s="32"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="F123" s="80"/>
+      <c r="G123" s="80"/>
+      <c r="H123" s="81"/>
+      <c r="J123" s="115"/>
+      <c r="K123" s="115"/>
+      <c r="L123" s="115"/>
+    </row>
+    <row r="124" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="F124" s="74"/>
+      <c r="G124" s="74"/>
+      <c r="H124" s="75"/>
+      <c r="J124" s="115"/>
+      <c r="K124" s="115"/>
+      <c r="L124" s="115"/>
+    </row>
+    <row r="125" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" s="38">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D125" s="39">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E125" s="73"/>
+      <c r="F125" s="74"/>
+      <c r="G125" s="74"/>
+      <c r="H125" s="75"/>
+      <c r="J125" s="115"/>
+      <c r="K125" s="115"/>
+      <c r="L125" s="115"/>
+    </row>
+    <row r="126" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B126" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" s="41">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D126" s="42">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E126" s="76"/>
+      <c r="F126" s="77"/>
+      <c r="G126" s="77"/>
+      <c r="H126" s="78"/>
+      <c r="J126" s="115"/>
+      <c r="K126" s="115"/>
+      <c r="L126" s="115"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A127" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B127" s="43"/>
+      <c r="C127" s="38"/>
+      <c r="D127" s="42">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E127" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="F127" s="80"/>
+      <c r="G127" s="80"/>
+      <c r="H127" s="81"/>
+      <c r="J127" s="115"/>
+      <c r="K127" s="115"/>
+      <c r="L127" s="115"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A128" s="36"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="41"/>
+      <c r="D128" s="41"/>
+      <c r="E128" s="82"/>
+      <c r="F128" s="83"/>
+      <c r="G128" s="83"/>
+      <c r="H128" s="84"/>
+      <c r="J128" s="115"/>
+      <c r="K128" s="115"/>
+      <c r="L128" s="115"/>
+    </row>
+    <row r="129" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="40"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="41"/>
+      <c r="D129" s="41"/>
+      <c r="E129" s="85"/>
+      <c r="F129" s="86"/>
+      <c r="G129" s="86"/>
+      <c r="H129" s="87"/>
+      <c r="J129" s="115"/>
+      <c r="K129" s="115"/>
+      <c r="L129" s="115"/>
+    </row>
+    <row r="130" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J130" s="115"/>
+      <c r="K130" s="115"/>
+      <c r="L130" s="115"/>
+    </row>
+    <row r="131" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J131" s="115"/>
+      <c r="K131" s="115"/>
+      <c r="L131" s="115"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J132" s="115"/>
+      <c r="K132" s="115"/>
+      <c r="L132" s="115"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J133" s="115"/>
+      <c r="K133" s="115"/>
+      <c r="L133" s="115"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J134" s="115"/>
+      <c r="K134" s="115"/>
+      <c r="L134" s="115"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J135" s="115"/>
+      <c r="K135" s="115"/>
+      <c r="L135" s="115"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J136" s="115"/>
+      <c r="K136" s="115"/>
+      <c r="L136" s="115"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J137" s="46"/>
+      <c r="K137" s="46"/>
+      <c r="L137" s="46"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J138" s="46"/>
+      <c r="K138" s="46"/>
+      <c r="L138" s="46"/>
+    </row>
+    <row r="140" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="142" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A142" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="116" t="s">
+        <v>54</v>
+      </c>
+      <c r="F142" s="116"/>
+      <c r="G142" s="116"/>
+      <c r="H142" s="117"/>
+      <c r="J142" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="K142" s="115"/>
+      <c r="L142" s="115"/>
+    </row>
+    <row r="143" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A143" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="F143" s="119"/>
+      <c r="G143" s="119"/>
+      <c r="H143" s="120"/>
+      <c r="J143" s="115"/>
+      <c r="K143" s="115"/>
+      <c r="L143" s="115"/>
+    </row>
+    <row r="144" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A144" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="4">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="D144" s="6">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="E144" s="118"/>
+      <c r="F144" s="119"/>
+      <c r="G144" s="119"/>
+      <c r="H144" s="120"/>
+      <c r="J144" s="115"/>
+      <c r="K144" s="115"/>
+      <c r="L144" s="115"/>
+    </row>
+    <row r="145" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A145" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="10">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D145" s="11">
+        <v>0.71875</v>
+      </c>
+      <c r="E145" s="118"/>
+      <c r="F145" s="119"/>
+      <c r="G145" s="119"/>
+      <c r="H145" s="120"/>
+      <c r="J145" s="115"/>
+      <c r="K145" s="115"/>
+      <c r="L145" s="115"/>
+    </row>
+    <row r="146" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C146" s="4">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="D146" s="10">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E146" s="121" t="s">
+        <v>30</v>
+      </c>
+      <c r="F146" s="122"/>
+      <c r="G146" s="122"/>
+      <c r="H146" s="123"/>
+      <c r="J146" s="115"/>
+      <c r="K146" s="115"/>
+      <c r="L146" s="115"/>
+    </row>
+    <row r="147" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A147" s="3"/>
+      <c r="B147" s="26"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="118"/>
+      <c r="F147" s="119"/>
+      <c r="G147" s="119"/>
+      <c r="H147" s="120"/>
+      <c r="J147" s="115"/>
+      <c r="K147" s="115"/>
+      <c r="L147" s="115"/>
+    </row>
+    <row r="148" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A148" s="9"/>
+      <c r="B148" s="44"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="118"/>
+      <c r="F148" s="119"/>
+      <c r="G148" s="119"/>
+      <c r="H148" s="120"/>
+      <c r="J148" s="115"/>
+      <c r="K148" s="115"/>
+      <c r="L148" s="115"/>
+    </row>
+    <row r="149" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A149" s="9"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="45"/>
+      <c r="E149" s="118"/>
+      <c r="F149" s="119"/>
+      <c r="G149" s="119"/>
+      <c r="H149" s="120"/>
+      <c r="J149" s="115"/>
+      <c r="K149" s="115"/>
+      <c r="L149" s="115"/>
+    </row>
+    <row r="150" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A150" s="9"/>
+      <c r="B150" s="26"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="124"/>
+      <c r="F150" s="125"/>
+      <c r="G150" s="125"/>
+      <c r="H150" s="126"/>
+      <c r="J150" s="115"/>
+      <c r="K150" s="115"/>
+      <c r="L150" s="115"/>
+    </row>
+    <row r="151" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="30"/>
+      <c r="B151" s="30"/>
+      <c r="C151" s="30"/>
+      <c r="D151" s="30"/>
+      <c r="J151" s="115"/>
+      <c r="K151" s="115"/>
+      <c r="L151" s="115"/>
+    </row>
+    <row r="152" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A152" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="F152" s="88"/>
+      <c r="G152" s="88"/>
+      <c r="H152" s="89"/>
+      <c r="J152" s="115"/>
+      <c r="K152" s="115"/>
+      <c r="L152" s="115"/>
+    </row>
+    <row r="153" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A153" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="F153" s="91"/>
+      <c r="G153" s="91"/>
+      <c r="H153" s="92"/>
+      <c r="J153" s="115"/>
+      <c r="K153" s="115"/>
+      <c r="L153" s="115"/>
+    </row>
+    <row r="154" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A154" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B154" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" s="22">
+        <v>0.3125</v>
+      </c>
+      <c r="D154" s="27">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E154" s="90"/>
+      <c r="F154" s="91"/>
+      <c r="G154" s="91"/>
+      <c r="H154" s="92"/>
+      <c r="J154" s="115"/>
+      <c r="K154" s="115"/>
+      <c r="L154" s="115"/>
+    </row>
+    <row r="155" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A155" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B155" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" s="24">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="D155" s="24">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E155" s="90"/>
+      <c r="F155" s="91"/>
+      <c r="G155" s="91"/>
+      <c r="H155" s="92"/>
+      <c r="J155" s="115"/>
+      <c r="K155" s="115"/>
+      <c r="L155" s="115"/>
+    </row>
+    <row r="156" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A156" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B156" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" s="24">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D156" s="25">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E156" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="F156" s="97"/>
+      <c r="G156" s="97"/>
+      <c r="H156" s="98"/>
+      <c r="J156" s="115"/>
+      <c r="K156" s="115"/>
+      <c r="L156" s="115"/>
+    </row>
+    <row r="157" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A157" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B157" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="24">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="D157" s="25">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E157" s="90"/>
+      <c r="F157" s="91"/>
+      <c r="G157" s="91"/>
+      <c r="H157" s="92"/>
+      <c r="J157" s="115"/>
+      <c r="K157" s="115"/>
+      <c r="L157" s="115"/>
+    </row>
+    <row r="158" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A158" s="23"/>
+      <c r="B158" s="28"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="22"/>
+      <c r="E158" s="93"/>
+      <c r="F158" s="94"/>
+      <c r="G158" s="94"/>
+      <c r="H158" s="95"/>
+      <c r="J158" s="115"/>
+      <c r="K158" s="115"/>
+      <c r="L158" s="115"/>
+    </row>
+    <row r="159" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D159" s="14"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="14"/>
+      <c r="G159" s="14"/>
+      <c r="H159" s="14"/>
+      <c r="J159" s="115"/>
+      <c r="K159" s="115"/>
+      <c r="L159" s="115"/>
+    </row>
+    <row r="160" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A160" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B160" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C160" s="32"/>
+      <c r="D160" s="32"/>
+      <c r="E160" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="F160" s="80"/>
+      <c r="G160" s="80"/>
+      <c r="H160" s="80"/>
+      <c r="I160" s="29"/>
+      <c r="J160" s="115"/>
+      <c r="K160" s="115"/>
+      <c r="L160" s="115"/>
+    </row>
+    <row r="161" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A161" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="F161" s="74"/>
+      <c r="G161" s="74"/>
+      <c r="H161" s="75"/>
+      <c r="J161" s="115"/>
+      <c r="K161" s="115"/>
+      <c r="L161" s="115"/>
+    </row>
+    <row r="162" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A162" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B162" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C162" s="38">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D162" s="39">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="E162" s="73"/>
+      <c r="F162" s="74"/>
+      <c r="G162" s="74"/>
+      <c r="H162" s="75"/>
+      <c r="J162" s="115"/>
+      <c r="K162" s="115"/>
+      <c r="L162" s="115"/>
+    </row>
+    <row r="163" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A163" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B163" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C163" s="41">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D163" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E163" s="76"/>
+      <c r="F163" s="77"/>
+      <c r="G163" s="77"/>
+      <c r="H163" s="78"/>
+      <c r="J163" s="115"/>
+      <c r="K163" s="115"/>
+      <c r="L163" s="115"/>
+    </row>
+    <row r="164" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A164" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B164" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="38">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D164" s="41">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E164" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="F164" s="80"/>
+      <c r="G164" s="80"/>
+      <c r="H164" s="81"/>
+      <c r="J164" s="115"/>
+      <c r="K164" s="115"/>
+      <c r="L164" s="115"/>
+    </row>
+    <row r="165" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A165" s="36"/>
+      <c r="B165" s="43"/>
+      <c r="C165" s="41"/>
+      <c r="D165" s="41"/>
+      <c r="E165" s="82"/>
+      <c r="F165" s="83"/>
+      <c r="G165" s="83"/>
+      <c r="H165" s="84"/>
+      <c r="J165" s="115"/>
+      <c r="K165" s="115"/>
+      <c r="L165" s="115"/>
+    </row>
+    <row r="166" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A166" s="40"/>
+      <c r="B166" s="43"/>
+      <c r="C166" s="38"/>
+      <c r="D166" s="41"/>
+      <c r="E166" s="85"/>
+      <c r="F166" s="86"/>
+      <c r="G166" s="86"/>
+      <c r="H166" s="87"/>
+      <c r="J166" s="115"/>
+      <c r="K166" s="115"/>
+      <c r="L166" s="115"/>
+    </row>
+    <row r="167" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C167" s="14"/>
+      <c r="J167" s="115"/>
+      <c r="K167" s="115"/>
+      <c r="L167" s="115"/>
+    </row>
+    <row r="168" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A168" s="127" t="s">
+        <v>39</v>
+      </c>
+      <c r="B168" s="127"/>
+      <c r="C168" s="48"/>
+      <c r="D168" s="48"/>
+      <c r="E168" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="F168" s="106"/>
+      <c r="G168" s="106"/>
+      <c r="H168" s="106"/>
+      <c r="I168" s="29"/>
+      <c r="J168" s="115"/>
+      <c r="K168" s="115"/>
+      <c r="L168" s="115"/>
+    </row>
+    <row r="169" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A169" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F169" s="100"/>
+      <c r="G169" s="100"/>
+      <c r="H169" s="101"/>
+      <c r="J169" s="115"/>
+      <c r="K169" s="115"/>
+      <c r="L169" s="115"/>
+    </row>
+    <row r="170" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A170" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B170" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C170" s="54">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D170" s="55">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E170" s="99"/>
+      <c r="F170" s="100"/>
+      <c r="G170" s="100"/>
+      <c r="H170" s="101"/>
+      <c r="J170" s="115"/>
+      <c r="K170" s="115"/>
+      <c r="L170" s="115"/>
+    </row>
+    <row r="171" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A171" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B171" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C171" s="57">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D171" s="58">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E171" s="102"/>
+      <c r="F171" s="103"/>
+      <c r="G171" s="103"/>
+      <c r="H171" s="104"/>
+      <c r="J171" s="115"/>
+      <c r="K171" s="115"/>
+      <c r="L171" s="115"/>
+    </row>
+    <row r="172" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A172" s="56"/>
+      <c r="B172" s="59"/>
+      <c r="C172" s="54"/>
+      <c r="D172" s="57"/>
+      <c r="E172" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="F172" s="106"/>
+      <c r="G172" s="106"/>
+      <c r="H172" s="107"/>
+      <c r="J172" s="115"/>
+      <c r="K172" s="115"/>
+      <c r="L172" s="115"/>
+    </row>
+    <row r="173" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A173" s="52"/>
+      <c r="B173" s="59"/>
+      <c r="C173" s="57"/>
+      <c r="D173" s="57"/>
+      <c r="E173" s="108"/>
+      <c r="F173" s="109"/>
+      <c r="G173" s="109"/>
+      <c r="H173" s="110"/>
+      <c r="J173" s="115"/>
+      <c r="K173" s="115"/>
+      <c r="L173" s="115"/>
+    </row>
+    <row r="174" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A174" s="56"/>
+      <c r="B174" s="59"/>
+      <c r="C174" s="57"/>
+      <c r="D174" s="57"/>
+      <c r="E174" s="111"/>
+      <c r="F174" s="112"/>
+      <c r="G174" s="112"/>
+      <c r="H174" s="113"/>
+      <c r="J174" s="115"/>
+      <c r="K174" s="115"/>
+      <c r="L174" s="115"/>
+    </row>
+    <row r="176" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="64">
+    <mergeCell ref="A82:D83"/>
+    <mergeCell ref="E79:H83"/>
+    <mergeCell ref="E56:H58"/>
+    <mergeCell ref="E59:H61"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="J29:L61"/>
+    <mergeCell ref="E2:H4"/>
+    <mergeCell ref="E12:H14"/>
     <mergeCell ref="E20:H22"/>
     <mergeCell ref="E15:H17"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E48:H50"/>
+    <mergeCell ref="E51:H53"/>
+    <mergeCell ref="J1:L25"/>
+    <mergeCell ref="E33:H37"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H42"/>
+    <mergeCell ref="E43:H45"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E47:H47"/>
     <mergeCell ref="E23:H25"/>
     <mergeCell ref="E5:H9"/>
     <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E2:H4"/>
-    <mergeCell ref="E12:H14"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H32"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="E168:H168"/>
+    <mergeCell ref="J65:L98"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H89"/>
+    <mergeCell ref="E90:H92"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H68"/>
+    <mergeCell ref="E69:H73"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="E76:H78"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="E105:H107"/>
+    <mergeCell ref="E108:H112"/>
+    <mergeCell ref="E169:H171"/>
+    <mergeCell ref="E172:H174"/>
+    <mergeCell ref="E95:H96"/>
+    <mergeCell ref="E97:H99"/>
+    <mergeCell ref="J104:L136"/>
+    <mergeCell ref="J142:L174"/>
+    <mergeCell ref="E142:H142"/>
+    <mergeCell ref="E143:H145"/>
+    <mergeCell ref="E146:H150"/>
+    <mergeCell ref="E152:H152"/>
+    <mergeCell ref="E153:H155"/>
+    <mergeCell ref="E156:H158"/>
+    <mergeCell ref="E160:H160"/>
+    <mergeCell ref="E161:H163"/>
+    <mergeCell ref="E164:H166"/>
+    <mergeCell ref="E104:H104"/>
+    <mergeCell ref="E124:H126"/>
+    <mergeCell ref="E127:H129"/>
+    <mergeCell ref="E123:H123"/>
+    <mergeCell ref="E114:H114"/>
+    <mergeCell ref="E115:H117"/>
+    <mergeCell ref="E118:H121"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hongming/file/車輛資訊.xlsx
+++ b/hongming/file/車輛資訊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa316\Desktop\弘明\跟車點名表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669581EE-B994-4A5C-8DC5-A4DFF80A6B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5081193-51A4-4792-93E6-8DD042820F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC916EDE-40CE-4311-AC1F-BC9971B68484}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="87">
   <si>
     <t>暑期營A車(大巴)</t>
   </si>
@@ -474,11 +474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第二週
-清水岩寺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7/11(二)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -621,12 +616,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第二週
-竹崙山
-志騰山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -737,6 +726,122 @@
   <si>
     <t>隨車老師：
 何依靜老師0919601799</t>
+  </si>
+  <si>
+    <t>隨車老師：
+許紜晟老師0988492527</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司機：林政毅老師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 3"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>4.水社大山</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/18(二)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暑期營員林路線</t>
+  </si>
+  <si>
+    <t>隨車老師：
+許紜晨老師0988492527</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三週
+星期二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三週
+星期五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/21(五)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 3"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>4.虎山</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 3"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>5.虎山</t>
+    </r>
+  </si>
+  <si>
+    <t>第二週
+星期二
+清水岩寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二週
+星期五
+竹崙山
+志騰山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -833,7 +938,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -867,6 +972,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,7 +1100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1209,6 +1320,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1254,6 +1371,54 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1269,51 +1434,48 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1332,58 +1494,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1394,6 +1505,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1709,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E07FBC0-B37D-4CCF-9B89-2E6EE3F2E4AE}">
-  <dimension ref="A1:L176"/>
+  <dimension ref="A1:L240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O119" sqref="O119"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B245" sqref="B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1734,18 +1854,18 @@
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="131" t="s">
+      <c r="E1" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
       <c r="I1" s="29"/>
-      <c r="J1" s="115" t="s">
+      <c r="J1" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
     </row>
     <row r="2" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
@@ -1760,15 +1880,15 @@
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="118" t="s">
+      <c r="E2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="120"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="102"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
@@ -1783,13 +1903,13 @@
       <c r="D3" s="6">
         <v>0.72569444444444453</v>
       </c>
-      <c r="E3" s="118"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="120"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="102"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
@@ -1804,13 +1924,13 @@
       <c r="D4" s="11">
         <v>0.71875</v>
       </c>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="120"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="102"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
     </row>
     <row r="5" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
@@ -1825,76 +1945,76 @@
       <c r="D5" s="10">
         <v>0.70138888888888884</v>
       </c>
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="123"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="130"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="99"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="26"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="120"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="130"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="102"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="9"/>
       <c r="B7" s="44"/>
       <c r="C7" s="10"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="120"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="102"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="9"/>
       <c r="B8" s="8"/>
       <c r="C8" s="4"/>
       <c r="D8" s="45"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="120"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="130"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="102"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="131"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="9"/>
       <c r="B9" s="26"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="126"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="130"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="105"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="131"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="130"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
     </row>
     <row r="11" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15" t="s">
@@ -1905,16 +2025,16 @@
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="89"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="107"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131"/>
     </row>
     <row r="12" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
@@ -1929,15 +2049,15 @@
       <c r="D12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="90" t="s">
+      <c r="E12" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="92"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="110"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="131"/>
     </row>
     <row r="13" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="20" t="s">
@@ -1952,13 +2072,13 @@
       <c r="D13" s="27">
         <v>0.73611111111111116</v>
       </c>
-      <c r="E13" s="90"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="92"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="110"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="131"/>
     </row>
     <row r="14" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="23" t="s">
@@ -1973,13 +2093,13 @@
       <c r="D14" s="24">
         <v>0.72222222222222221</v>
       </c>
-      <c r="E14" s="90"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="92"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="110"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="131"/>
     </row>
     <row r="15" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="20" t="s">
@@ -1994,15 +2114,15 @@
       <c r="D15" s="25">
         <v>0.71527777777777779</v>
       </c>
-      <c r="E15" s="96" t="s">
+      <c r="E15" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="98"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="119"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="131"/>
     </row>
     <row r="16" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23" t="s">
@@ -2017,27 +2137,27 @@
       <c r="D16" s="25">
         <v>0.70138888888888884</v>
       </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="92"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="110"/>
       <c r="I16" s="29"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
     </row>
     <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23"/>
       <c r="B17" s="28"/>
       <c r="C17" s="24"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="95"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="120"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D18" s="14"/>
@@ -2045,9 +2165,9 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="131"/>
     </row>
     <row r="19" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A19" s="31" t="s">
@@ -2058,16 +2178,16 @@
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
-      <c r="E19" s="80" t="s">
+      <c r="E19" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
       <c r="I19" s="29"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="130"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="131"/>
     </row>
     <row r="20" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="33" t="s">
@@ -2082,15 +2202,15 @@
       <c r="D20" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="130"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="131"/>
     </row>
     <row r="21" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="36" t="s">
@@ -2105,13 +2225,13 @@
       <c r="D21" s="39">
         <v>0.73263888888888884</v>
       </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="75"/>
-      <c r="J21" s="130"/>
-      <c r="K21" s="130"/>
-      <c r="L21" s="130"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="131"/>
     </row>
     <row r="22" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="40" t="s">
@@ -2126,13 +2246,13 @@
       <c r="D22" s="42">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E22" s="76"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="78"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="130"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="80"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="40" t="s">
@@ -2147,47 +2267,47 @@
       <c r="D23" s="41">
         <v>0.70138888888888884</v>
       </c>
-      <c r="E23" s="79" t="s">
+      <c r="E23" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="81"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="130"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="83"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="131"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="36"/>
       <c r="B24" s="43"/>
       <c r="C24" s="41"/>
       <c r="D24" s="41"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="130"/>
-      <c r="L24" s="130"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="131"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="40"/>
       <c r="B25" s="43"/>
       <c r="C25" s="38"/>
       <c r="D25" s="41"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="87"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="130"/>
-      <c r="L25" s="130"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="89"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="131"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="C26" s="14"/>
     </row>
-    <row r="27" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:12" s="137" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="29" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
         <v>0</v>
@@ -2197,17 +2317,17 @@
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="116" t="s">
+      <c r="E29" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="117"/>
-      <c r="J29" s="115" t="s">
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="118"/>
+      <c r="J29" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="K29" s="115"/>
-      <c r="L29" s="115"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="116"/>
     </row>
     <row r="30" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
@@ -2222,15 +2342,15 @@
       <c r="D30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="118" t="s">
+      <c r="E30" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="120"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="115"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="102"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="116"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
@@ -2245,13 +2365,13 @@
       <c r="D31" s="6">
         <v>0.72569444444444453</v>
       </c>
-      <c r="E31" s="118"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="120"/>
-      <c r="J31" s="115"/>
-      <c r="K31" s="115"/>
-      <c r="L31" s="115"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="102"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="116"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="9" t="s">
@@ -2266,13 +2386,13 @@
       <c r="D32" s="11">
         <v>0.71875</v>
       </c>
-      <c r="E32" s="118"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="120"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="115"/>
-      <c r="L32" s="115"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="102"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="116"/>
     </row>
     <row r="33" spans="1:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
@@ -2287,76 +2407,76 @@
       <c r="D33" s="10">
         <v>0.70138888888888884</v>
       </c>
-      <c r="E33" s="121" t="s">
+      <c r="E33" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="123"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="99"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="116"/>
     </row>
     <row r="34" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="26"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="120"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="115"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="102"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="116"/>
     </row>
     <row r="35" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="9"/>
       <c r="B35" s="44"/>
       <c r="C35" s="10"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="120"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="115"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="102"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="116"/>
     </row>
     <row r="36" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9"/>
       <c r="B36" s="8"/>
       <c r="C36" s="4"/>
       <c r="D36" s="45"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="120"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="115"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="102"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="116"/>
     </row>
     <row r="37" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9"/>
       <c r="B37" s="26"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
-      <c r="E37" s="124"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="126"/>
-      <c r="J37" s="115"/>
-      <c r="K37" s="115"/>
-      <c r="L37" s="115"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="105"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="116"/>
+      <c r="L37" s="116"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="115"/>
-      <c r="L38" s="115"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="116"/>
     </row>
     <row r="39" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A39" s="15" t="s">
@@ -2367,15 +2487,15 @@
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
-      <c r="E39" s="88" t="s">
+      <c r="E39" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="89"/>
-      <c r="J39" s="115"/>
-      <c r="K39" s="115"/>
-      <c r="L39" s="115"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="107"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="116"/>
     </row>
     <row r="40" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="17" t="s">
@@ -2390,15 +2510,15 @@
       <c r="D40" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="90" t="s">
+      <c r="E40" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="92"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="115"/>
-      <c r="L40" s="115"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="110"/>
+      <c r="J40" s="116"/>
+      <c r="K40" s="116"/>
+      <c r="L40" s="116"/>
     </row>
     <row r="41" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="20" t="s">
@@ -2413,13 +2533,13 @@
       <c r="D41" s="27">
         <v>0.73611111111111116</v>
       </c>
-      <c r="E41" s="90"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="92"/>
-      <c r="J41" s="115"/>
-      <c r="K41" s="115"/>
-      <c r="L41" s="115"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="110"/>
+      <c r="J41" s="116"/>
+      <c r="K41" s="116"/>
+      <c r="L41" s="116"/>
     </row>
     <row r="42" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="23" t="s">
@@ -2434,13 +2554,13 @@
       <c r="D42" s="24">
         <v>0.72222222222222221</v>
       </c>
-      <c r="E42" s="90"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="92"/>
-      <c r="J42" s="115"/>
-      <c r="K42" s="115"/>
-      <c r="L42" s="115"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="110"/>
+      <c r="J42" s="116"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
     </row>
     <row r="43" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="20" t="s">
@@ -2455,15 +2575,15 @@
       <c r="D43" s="25">
         <v>0.71527777777777779</v>
       </c>
-      <c r="E43" s="96" t="s">
+      <c r="E43" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="98"/>
-      <c r="J43" s="115"/>
-      <c r="K43" s="115"/>
-      <c r="L43" s="115"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="112"/>
+      <c r="H43" s="119"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="116"/>
+      <c r="L43" s="116"/>
     </row>
     <row r="44" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="23" t="s">
@@ -2478,26 +2598,26 @@
       <c r="D44" s="25">
         <v>0.70138888888888884</v>
       </c>
-      <c r="E44" s="90"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="92"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="115"/>
-      <c r="L44" s="115"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="110"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="116"/>
+      <c r="L44" s="116"/>
     </row>
     <row r="45" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="23"/>
       <c r="B45" s="28"/>
       <c r="C45" s="24"/>
       <c r="D45" s="22"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="94"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="95"/>
-      <c r="J45" s="115"/>
-      <c r="K45" s="115"/>
-      <c r="L45" s="115"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="120"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="116"/>
+      <c r="L45" s="116"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D46" s="14"/>
@@ -2505,9 +2625,9 @@
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
-      <c r="J46" s="115"/>
-      <c r="K46" s="115"/>
-      <c r="L46" s="115"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="116"/>
+      <c r="L46" s="116"/>
     </row>
     <row r="47" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A47" s="31" t="s">
@@ -2518,16 +2638,16 @@
       </c>
       <c r="C47" s="32"/>
       <c r="D47" s="32"/>
-      <c r="E47" s="80" t="s">
+      <c r="E47" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
       <c r="I47" s="29"/>
-      <c r="J47" s="115"/>
-      <c r="K47" s="115"/>
-      <c r="L47" s="115"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="116"/>
+      <c r="L47" s="116"/>
     </row>
     <row r="48" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="33" t="s">
@@ -2542,15 +2662,15 @@
       <c r="D48" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="73" t="s">
+      <c r="E48" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="75"/>
-      <c r="J48" s="115"/>
-      <c r="K48" s="115"/>
-      <c r="L48" s="115"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="77"/>
+      <c r="J48" s="116"/>
+      <c r="K48" s="116"/>
+      <c r="L48" s="116"/>
     </row>
     <row r="49" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="36" t="s">
@@ -2565,13 +2685,13 @@
       <c r="D49" s="39">
         <v>0.73263888888888884</v>
       </c>
-      <c r="E49" s="73"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="75"/>
-      <c r="J49" s="115"/>
-      <c r="K49" s="115"/>
-      <c r="L49" s="115"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="77"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="116"/>
+      <c r="L49" s="116"/>
     </row>
     <row r="50" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="40" t="s">
@@ -2586,13 +2706,13 @@
       <c r="D50" s="42">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E50" s="76"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="78"/>
-      <c r="J50" s="115"/>
-      <c r="K50" s="115"/>
-      <c r="L50" s="115"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="80"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="116"/>
+      <c r="L50" s="116"/>
     </row>
     <row r="51" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="40" t="s">
@@ -2607,65 +2727,65 @@
       <c r="D51" s="41">
         <v>0.70138888888888884</v>
       </c>
-      <c r="E51" s="79" t="s">
+      <c r="E51" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="81"/>
-      <c r="J51" s="115"/>
-      <c r="K51" s="115"/>
-      <c r="L51" s="115"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="83"/>
+      <c r="J51" s="116"/>
+      <c r="K51" s="116"/>
+      <c r="L51" s="116"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" s="36"/>
       <c r="B52" s="43"/>
       <c r="C52" s="41"/>
       <c r="D52" s="41"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="84"/>
-      <c r="J52" s="115"/>
-      <c r="K52" s="115"/>
-      <c r="L52" s="115"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="86"/>
+      <c r="J52" s="116"/>
+      <c r="K52" s="116"/>
+      <c r="L52" s="116"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" s="40"/>
       <c r="B53" s="43"/>
       <c r="C53" s="38"/>
       <c r="D53" s="41"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="87"/>
-      <c r="J53" s="115"/>
-      <c r="K53" s="115"/>
-      <c r="L53" s="115"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="89"/>
+      <c r="J53" s="116"/>
+      <c r="K53" s="116"/>
+      <c r="L53" s="116"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C54" s="14"/>
-      <c r="J54" s="115"/>
-      <c r="K54" s="115"/>
-      <c r="L54" s="115"/>
+      <c r="J54" s="116"/>
+      <c r="K54" s="116"/>
+      <c r="L54" s="116"/>
     </row>
     <row r="55" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A55" s="127" t="s">
+      <c r="A55" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="127"/>
+      <c r="B55" s="121"/>
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
-      <c r="E55" s="106" t="s">
+      <c r="E55" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="106"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="90"/>
       <c r="I55" s="29"/>
-      <c r="J55" s="115"/>
-      <c r="K55" s="115"/>
-      <c r="L55" s="115"/>
+      <c r="J55" s="116"/>
+      <c r="K55" s="116"/>
+      <c r="L55" s="116"/>
     </row>
     <row r="56" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="50" t="s">
@@ -2680,15 +2800,15 @@
       <c r="D56" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="99" t="s">
+      <c r="E56" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="F56" s="100"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="101"/>
-      <c r="J56" s="115"/>
-      <c r="K56" s="115"/>
-      <c r="L56" s="115"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="93"/>
+      <c r="J56" s="116"/>
+      <c r="K56" s="116"/>
+      <c r="L56" s="116"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57" s="52" t="s">
@@ -2703,13 +2823,13 @@
       <c r="D57" s="55">
         <v>0.71527777777777779</v>
       </c>
-      <c r="E57" s="99"/>
-      <c r="F57" s="100"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="101"/>
-      <c r="J57" s="115"/>
-      <c r="K57" s="115"/>
-      <c r="L57" s="115"/>
+      <c r="E57" s="91"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="92"/>
+      <c r="H57" s="93"/>
+      <c r="J57" s="116"/>
+      <c r="K57" s="116"/>
+      <c r="L57" s="116"/>
     </row>
     <row r="58" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="56" t="s">
@@ -2724,54 +2844,54 @@
       <c r="D58" s="58">
         <v>0.70138888888888884</v>
       </c>
-      <c r="E58" s="102"/>
-      <c r="F58" s="103"/>
-      <c r="G58" s="103"/>
-      <c r="H58" s="104"/>
-      <c r="J58" s="115"/>
-      <c r="K58" s="115"/>
-      <c r="L58" s="115"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="95"/>
+      <c r="G58" s="95"/>
+      <c r="H58" s="96"/>
+      <c r="J58" s="116"/>
+      <c r="K58" s="116"/>
+      <c r="L58" s="116"/>
     </row>
     <row r="59" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="56"/>
       <c r="B59" s="59"/>
       <c r="C59" s="54"/>
       <c r="D59" s="57"/>
-      <c r="E59" s="105" t="s">
+      <c r="E59" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="F59" s="106"/>
-      <c r="G59" s="106"/>
-      <c r="H59" s="107"/>
-      <c r="J59" s="115"/>
-      <c r="K59" s="115"/>
-      <c r="L59" s="115"/>
+      <c r="F59" s="90"/>
+      <c r="G59" s="90"/>
+      <c r="H59" s="122"/>
+      <c r="J59" s="116"/>
+      <c r="K59" s="116"/>
+      <c r="L59" s="116"/>
     </row>
     <row r="60" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="52"/>
       <c r="B60" s="59"/>
       <c r="C60" s="57"/>
       <c r="D60" s="57"/>
-      <c r="E60" s="108"/>
-      <c r="F60" s="109"/>
-      <c r="G60" s="109"/>
-      <c r="H60" s="110"/>
-      <c r="J60" s="115"/>
-      <c r="K60" s="115"/>
-      <c r="L60" s="115"/>
+      <c r="E60" s="125"/>
+      <c r="F60" s="126"/>
+      <c r="G60" s="126"/>
+      <c r="H60" s="127"/>
+      <c r="J60" s="116"/>
+      <c r="K60" s="116"/>
+      <c r="L60" s="116"/>
     </row>
     <row r="61" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="56"/>
       <c r="B61" s="59"/>
       <c r="C61" s="54"/>
       <c r="D61" s="57"/>
-      <c r="E61" s="111"/>
-      <c r="F61" s="112"/>
-      <c r="G61" s="112"/>
-      <c r="H61" s="113"/>
-      <c r="J61" s="115"/>
-      <c r="K61" s="115"/>
-      <c r="L61" s="115"/>
+      <c r="E61" s="128"/>
+      <c r="F61" s="129"/>
+      <c r="G61" s="129"/>
+      <c r="H61" s="130"/>
+      <c r="J61" s="116"/>
+      <c r="K61" s="116"/>
+      <c r="L61" s="116"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C62" s="14"/>
@@ -2791,21 +2911,21 @@
         <v>0</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
-      <c r="E65" s="116" t="s">
-        <v>50</v>
-      </c>
-      <c r="F65" s="116"/>
-      <c r="G65" s="116"/>
-      <c r="H65" s="117"/>
-      <c r="J65" s="114" t="s">
+      <c r="E65" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="K65" s="115"/>
-      <c r="L65" s="115"/>
+      <c r="F65" s="117"/>
+      <c r="G65" s="117"/>
+      <c r="H65" s="118"/>
+      <c r="J65" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="K65" s="116"/>
+      <c r="L65" s="116"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" s="7" t="s">
@@ -2820,15 +2940,15 @@
       <c r="D66" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="118" t="s">
+      <c r="E66" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="F66" s="119"/>
-      <c r="G66" s="119"/>
-      <c r="H66" s="120"/>
-      <c r="J66" s="115"/>
-      <c r="K66" s="115"/>
-      <c r="L66" s="115"/>
+      <c r="F66" s="101"/>
+      <c r="G66" s="101"/>
+      <c r="H66" s="102"/>
+      <c r="J66" s="116"/>
+      <c r="K66" s="116"/>
+      <c r="L66" s="116"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
@@ -2843,13 +2963,13 @@
       <c r="D67" s="6">
         <v>0.70138888888888884</v>
       </c>
-      <c r="E67" s="118"/>
-      <c r="F67" s="119"/>
-      <c r="G67" s="119"/>
-      <c r="H67" s="120"/>
-      <c r="J67" s="115"/>
-      <c r="K67" s="115"/>
-      <c r="L67" s="115"/>
+      <c r="E67" s="100"/>
+      <c r="F67" s="101"/>
+      <c r="G67" s="101"/>
+      <c r="H67" s="102"/>
+      <c r="J67" s="116"/>
+      <c r="K67" s="116"/>
+      <c r="L67" s="116"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" s="9" t="s">
@@ -2864,13 +2984,13 @@
       <c r="D68" s="11">
         <v>0.69097222222222221</v>
       </c>
-      <c r="E68" s="118"/>
-      <c r="F68" s="119"/>
-      <c r="G68" s="119"/>
-      <c r="H68" s="120"/>
-      <c r="J68" s="115"/>
-      <c r="K68" s="115"/>
-      <c r="L68" s="115"/>
+      <c r="E68" s="100"/>
+      <c r="F68" s="101"/>
+      <c r="G68" s="101"/>
+      <c r="H68" s="102"/>
+      <c r="J68" s="116"/>
+      <c r="K68" s="116"/>
+      <c r="L68" s="116"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" s="9" t="s">
@@ -2885,15 +3005,15 @@
       <c r="D69" s="10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E69" s="121" t="s">
+      <c r="E69" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="F69" s="122"/>
-      <c r="G69" s="122"/>
-      <c r="H69" s="123"/>
-      <c r="J69" s="115"/>
-      <c r="K69" s="115"/>
-      <c r="L69" s="115"/>
+      <c r="F69" s="98"/>
+      <c r="G69" s="98"/>
+      <c r="H69" s="99"/>
+      <c r="J69" s="116"/>
+      <c r="K69" s="116"/>
+      <c r="L69" s="116"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" s="9" t="s">
@@ -2906,80 +3026,80 @@
       <c r="D70" s="10">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E70" s="118"/>
-      <c r="F70" s="119"/>
-      <c r="G70" s="119"/>
-      <c r="H70" s="120"/>
-      <c r="J70" s="115"/>
-      <c r="K70" s="115"/>
-      <c r="L70" s="115"/>
+      <c r="E70" s="100"/>
+      <c r="F70" s="101"/>
+      <c r="G70" s="101"/>
+      <c r="H70" s="102"/>
+      <c r="J70" s="116"/>
+      <c r="K70" s="116"/>
+      <c r="L70" s="116"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" s="9"/>
       <c r="B71" s="44"/>
       <c r="C71" s="10"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="118"/>
-      <c r="F71" s="119"/>
-      <c r="G71" s="119"/>
-      <c r="H71" s="120"/>
-      <c r="J71" s="115"/>
-      <c r="K71" s="115"/>
-      <c r="L71" s="115"/>
+      <c r="E71" s="100"/>
+      <c r="F71" s="101"/>
+      <c r="G71" s="101"/>
+      <c r="H71" s="102"/>
+      <c r="J71" s="116"/>
+      <c r="K71" s="116"/>
+      <c r="L71" s="116"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" s="9"/>
       <c r="B72" s="8"/>
       <c r="C72" s="4"/>
       <c r="D72" s="45"/>
-      <c r="E72" s="118"/>
-      <c r="F72" s="119"/>
-      <c r="G72" s="119"/>
-      <c r="H72" s="120"/>
-      <c r="J72" s="115"/>
-      <c r="K72" s="115"/>
-      <c r="L72" s="115"/>
+      <c r="E72" s="100"/>
+      <c r="F72" s="101"/>
+      <c r="G72" s="101"/>
+      <c r="H72" s="102"/>
+      <c r="J72" s="116"/>
+      <c r="K72" s="116"/>
+      <c r="L72" s="116"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73" s="9"/>
       <c r="B73" s="26"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
-      <c r="E73" s="124"/>
-      <c r="F73" s="125"/>
-      <c r="G73" s="125"/>
-      <c r="H73" s="126"/>
-      <c r="J73" s="115"/>
-      <c r="K73" s="115"/>
-      <c r="L73" s="115"/>
+      <c r="E73" s="103"/>
+      <c r="F73" s="104"/>
+      <c r="G73" s="104"/>
+      <c r="H73" s="105"/>
+      <c r="J73" s="116"/>
+      <c r="K73" s="116"/>
+      <c r="L73" s="116"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" s="30"/>
       <c r="B74" s="30"/>
       <c r="C74" s="30"/>
       <c r="D74" s="30"/>
-      <c r="J74" s="115"/>
-      <c r="K74" s="115"/>
-      <c r="L74" s="115"/>
+      <c r="J74" s="116"/>
+      <c r="K74" s="116"/>
+      <c r="L74" s="116"/>
     </row>
     <row r="75" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A75" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
-      <c r="E75" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="F75" s="88"/>
-      <c r="G75" s="88"/>
-      <c r="H75" s="89"/>
-      <c r="J75" s="115"/>
-      <c r="K75" s="115"/>
-      <c r="L75" s="115"/>
+      <c r="E75" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75" s="106"/>
+      <c r="G75" s="106"/>
+      <c r="H75" s="107"/>
+      <c r="J75" s="116"/>
+      <c r="K75" s="116"/>
+      <c r="L75" s="116"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" s="17" t="s">
@@ -2994,15 +3114,15 @@
       <c r="D76" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="90" t="s">
+      <c r="E76" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="F76" s="91"/>
-      <c r="G76" s="91"/>
-      <c r="H76" s="92"/>
-      <c r="J76" s="115"/>
-      <c r="K76" s="115"/>
-      <c r="L76" s="115"/>
+      <c r="F76" s="109"/>
+      <c r="G76" s="109"/>
+      <c r="H76" s="110"/>
+      <c r="J76" s="116"/>
+      <c r="K76" s="116"/>
+      <c r="L76" s="116"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" s="20" t="s">
@@ -3017,17 +3137,17 @@
       <c r="D77" s="27">
         <v>0.71527777777777779</v>
       </c>
-      <c r="E77" s="90"/>
-      <c r="F77" s="91"/>
-      <c r="G77" s="91"/>
-      <c r="H77" s="92"/>
-      <c r="J77" s="115"/>
-      <c r="K77" s="115"/>
-      <c r="L77" s="115"/>
+      <c r="E77" s="108"/>
+      <c r="F77" s="109"/>
+      <c r="G77" s="109"/>
+      <c r="H77" s="110"/>
+      <c r="J77" s="116"/>
+      <c r="K77" s="116"/>
+      <c r="L77" s="116"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B78" s="21" t="s">
         <v>19</v>
@@ -3038,17 +3158,17 @@
       <c r="D78" s="25">
         <v>0.69444444444444453</v>
       </c>
-      <c r="E78" s="90"/>
-      <c r="F78" s="91"/>
-      <c r="G78" s="91"/>
-      <c r="H78" s="92"/>
-      <c r="J78" s="115"/>
-      <c r="K78" s="115"/>
-      <c r="L78" s="115"/>
+      <c r="E78" s="108"/>
+      <c r="F78" s="109"/>
+      <c r="G78" s="109"/>
+      <c r="H78" s="110"/>
+      <c r="J78" s="116"/>
+      <c r="K78" s="116"/>
+      <c r="L78" s="116"/>
     </row>
     <row r="79" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B79" s="28" t="s">
         <v>8</v>
@@ -3059,40 +3179,40 @@
       <c r="D79" s="24">
         <v>0.68055555555555547</v>
       </c>
-      <c r="E79" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="F79" s="97"/>
-      <c r="G79" s="97"/>
-      <c r="H79" s="98"/>
-      <c r="J79" s="115"/>
-      <c r="K79" s="115"/>
-      <c r="L79" s="115"/>
+      <c r="E79" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="F79" s="112"/>
+      <c r="G79" s="112"/>
+      <c r="H79" s="119"/>
+      <c r="J79" s="116"/>
+      <c r="K79" s="116"/>
+      <c r="L79" s="116"/>
     </row>
     <row r="80" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B80" s="28" t="s">
         <v>41</v>
       </c>
       <c r="C80" s="71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D80" s="70">
         <v>0.66319444444444442</v>
       </c>
-      <c r="E80" s="90"/>
-      <c r="F80" s="91"/>
-      <c r="G80" s="91"/>
-      <c r="H80" s="92"/>
-      <c r="J80" s="115"/>
-      <c r="K80" s="115"/>
-      <c r="L80" s="115"/>
+      <c r="E80" s="108"/>
+      <c r="F80" s="109"/>
+      <c r="G80" s="109"/>
+      <c r="H80" s="110"/>
+      <c r="J80" s="116"/>
+      <c r="K80" s="116"/>
+      <c r="L80" s="116"/>
     </row>
     <row r="81" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B81" s="28" t="s">
         <v>47</v>
@@ -3101,41 +3221,41 @@
       <c r="D81" s="24">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E81" s="90"/>
-      <c r="F81" s="91"/>
-      <c r="G81" s="91"/>
-      <c r="H81" s="92"/>
-      <c r="J81" s="115"/>
-      <c r="K81" s="115"/>
-      <c r="L81" s="115"/>
+      <c r="E81" s="108"/>
+      <c r="F81" s="109"/>
+      <c r="G81" s="109"/>
+      <c r="H81" s="110"/>
+      <c r="J81" s="116"/>
+      <c r="K81" s="116"/>
+      <c r="L81" s="116"/>
     </row>
     <row r="82" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="132" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B82" s="133"/>
       <c r="C82" s="133"/>
       <c r="D82" s="133"/>
-      <c r="E82" s="90"/>
-      <c r="F82" s="91"/>
-      <c r="G82" s="91"/>
-      <c r="H82" s="92"/>
-      <c r="J82" s="115"/>
-      <c r="K82" s="115"/>
-      <c r="L82" s="115"/>
+      <c r="E82" s="108"/>
+      <c r="F82" s="109"/>
+      <c r="G82" s="109"/>
+      <c r="H82" s="110"/>
+      <c r="J82" s="116"/>
+      <c r="K82" s="116"/>
+      <c r="L82" s="116"/>
     </row>
     <row r="83" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="134"/>
       <c r="B83" s="134"/>
       <c r="C83" s="134"/>
       <c r="D83" s="134"/>
-      <c r="E83" s="93"/>
-      <c r="F83" s="94"/>
-      <c r="G83" s="94"/>
-      <c r="H83" s="95"/>
-      <c r="J83" s="115"/>
-      <c r="K83" s="115"/>
-      <c r="L83" s="115"/>
+      <c r="E83" s="113"/>
+      <c r="F83" s="114"/>
+      <c r="G83" s="114"/>
+      <c r="H83" s="120"/>
+      <c r="J83" s="116"/>
+      <c r="K83" s="116"/>
+      <c r="L83" s="116"/>
     </row>
     <row r="84" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="67"/>
@@ -3146,35 +3266,35 @@
       <c r="F84" s="65"/>
       <c r="G84" s="65"/>
       <c r="H84" s="65"/>
-      <c r="J84" s="115"/>
-      <c r="K84" s="115"/>
-      <c r="L84" s="115"/>
+      <c r="J84" s="116"/>
+      <c r="K84" s="116"/>
+      <c r="L84" s="116"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A85" s="66"/>
       <c r="B85" s="66"/>
-      <c r="J85" s="115"/>
-      <c r="K85" s="115"/>
-      <c r="L85" s="115"/>
+      <c r="J85" s="116"/>
+      <c r="K85" s="116"/>
+      <c r="L85" s="116"/>
     </row>
     <row r="86" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A86" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C86" s="32"/>
       <c r="D86" s="32"/>
-      <c r="E86" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="F86" s="80"/>
-      <c r="G86" s="80"/>
-      <c r="H86" s="81"/>
-      <c r="J86" s="115"/>
-      <c r="K86" s="115"/>
-      <c r="L86" s="115"/>
+      <c r="E86" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="F86" s="82"/>
+      <c r="G86" s="82"/>
+      <c r="H86" s="83"/>
+      <c r="J86" s="116"/>
+      <c r="K86" s="116"/>
+      <c r="L86" s="116"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87" s="33" t="s">
@@ -3189,15 +3309,15 @@
       <c r="D87" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="73" t="s">
+      <c r="E87" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="F87" s="74"/>
-      <c r="G87" s="74"/>
-      <c r="H87" s="75"/>
-      <c r="J87" s="115"/>
-      <c r="K87" s="115"/>
-      <c r="L87" s="115"/>
+      <c r="F87" s="76"/>
+      <c r="G87" s="76"/>
+      <c r="H87" s="77"/>
+      <c r="J87" s="116"/>
+      <c r="K87" s="116"/>
+      <c r="L87" s="116"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A88" s="36" t="s">
@@ -3212,13 +3332,13 @@
       <c r="D88" s="39">
         <v>0.69444444444444453</v>
       </c>
-      <c r="E88" s="73"/>
-      <c r="F88" s="74"/>
-      <c r="G88" s="74"/>
-      <c r="H88" s="75"/>
-      <c r="J88" s="115"/>
-      <c r="K88" s="115"/>
-      <c r="L88" s="115"/>
+      <c r="E88" s="75"/>
+      <c r="F88" s="76"/>
+      <c r="G88" s="76"/>
+      <c r="H88" s="77"/>
+      <c r="J88" s="116"/>
+      <c r="K88" s="116"/>
+      <c r="L88" s="116"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A89" s="40" t="s">
@@ -3233,13 +3353,13 @@
       <c r="D89" s="42">
         <v>0.67013888888888884</v>
       </c>
-      <c r="E89" s="76"/>
-      <c r="F89" s="77"/>
-      <c r="G89" s="77"/>
-      <c r="H89" s="78"/>
-      <c r="J89" s="115"/>
-      <c r="K89" s="115"/>
-      <c r="L89" s="115"/>
+      <c r="E89" s="78"/>
+      <c r="F89" s="79"/>
+      <c r="G89" s="79"/>
+      <c r="H89" s="80"/>
+      <c r="J89" s="116"/>
+      <c r="K89" s="116"/>
+      <c r="L89" s="116"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90" s="40" t="s">
@@ -3252,64 +3372,64 @@
       <c r="D90" s="41">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E90" s="79" t="s">
+      <c r="E90" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F90" s="80"/>
-      <c r="G90" s="80"/>
-      <c r="H90" s="81"/>
-      <c r="J90" s="115"/>
-      <c r="K90" s="115"/>
-      <c r="L90" s="115"/>
+      <c r="F90" s="82"/>
+      <c r="G90" s="82"/>
+      <c r="H90" s="83"/>
+      <c r="J90" s="116"/>
+      <c r="K90" s="116"/>
+      <c r="L90" s="116"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A91" s="36"/>
       <c r="B91" s="43"/>
       <c r="C91" s="41"/>
       <c r="D91" s="41"/>
-      <c r="E91" s="82"/>
-      <c r="F91" s="83"/>
-      <c r="G91" s="83"/>
-      <c r="H91" s="84"/>
-      <c r="J91" s="115"/>
-      <c r="K91" s="115"/>
-      <c r="L91" s="115"/>
+      <c r="E91" s="84"/>
+      <c r="F91" s="85"/>
+      <c r="G91" s="85"/>
+      <c r="H91" s="86"/>
+      <c r="J91" s="116"/>
+      <c r="K91" s="116"/>
+      <c r="L91" s="116"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A92" s="40"/>
       <c r="B92" s="43"/>
       <c r="C92" s="38"/>
       <c r="D92" s="41"/>
-      <c r="E92" s="85"/>
-      <c r="F92" s="86"/>
-      <c r="G92" s="86"/>
-      <c r="H92" s="87"/>
-      <c r="J92" s="115"/>
-      <c r="K92" s="115"/>
-      <c r="L92" s="115"/>
+      <c r="E92" s="87"/>
+      <c r="F92" s="88"/>
+      <c r="G92" s="88"/>
+      <c r="H92" s="89"/>
+      <c r="J92" s="116"/>
+      <c r="K92" s="116"/>
+      <c r="L92" s="116"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C93" s="14"/>
-      <c r="J93" s="115"/>
-      <c r="K93" s="115"/>
-      <c r="L93" s="115"/>
+      <c r="J93" s="116"/>
+      <c r="K93" s="116"/>
+      <c r="L93" s="116"/>
     </row>
     <row r="94" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A94" s="127" t="s">
-        <v>62</v>
-      </c>
-      <c r="B94" s="127"/>
+      <c r="A94" s="121" t="s">
+        <v>61</v>
+      </c>
+      <c r="B94" s="121"/>
       <c r="C94" s="48"/>
       <c r="D94" s="48"/>
-      <c r="E94" s="106" t="s">
-        <v>50</v>
-      </c>
-      <c r="F94" s="106"/>
-      <c r="G94" s="106"/>
-      <c r="H94" s="107"/>
-      <c r="J94" s="115"/>
-      <c r="K94" s="115"/>
-      <c r="L94" s="115"/>
+      <c r="E94" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="F94" s="90"/>
+      <c r="G94" s="90"/>
+      <c r="H94" s="122"/>
+      <c r="J94" s="116"/>
+      <c r="K94" s="116"/>
+      <c r="L94" s="116"/>
     </row>
     <row r="95" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="50" t="s">
@@ -3324,15 +3444,15 @@
       <c r="D95" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="99" t="s">
+      <c r="E95" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="F95" s="100"/>
-      <c r="G95" s="100"/>
-      <c r="H95" s="101"/>
-      <c r="J95" s="115"/>
-      <c r="K95" s="115"/>
-      <c r="L95" s="115"/>
+      <c r="F95" s="92"/>
+      <c r="G95" s="92"/>
+      <c r="H95" s="93"/>
+      <c r="J95" s="116"/>
+      <c r="K95" s="116"/>
+      <c r="L95" s="116"/>
     </row>
     <row r="96" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="52" t="s">
@@ -3345,15 +3465,15 @@
         <v>0.31944444444444448</v>
       </c>
       <c r="D96" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="E96" s="102"/>
-      <c r="F96" s="103"/>
-      <c r="G96" s="103"/>
-      <c r="H96" s="104"/>
-      <c r="J96" s="115"/>
-      <c r="K96" s="115"/>
-      <c r="L96" s="115"/>
+        <v>63</v>
+      </c>
+      <c r="E96" s="94"/>
+      <c r="F96" s="95"/>
+      <c r="G96" s="95"/>
+      <c r="H96" s="96"/>
+      <c r="J96" s="116"/>
+      <c r="K96" s="116"/>
+      <c r="L96" s="116"/>
     </row>
     <row r="97" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="56" t="s">
@@ -3366,40 +3486,40 @@
         <v>0.34027777777777773</v>
       </c>
       <c r="D97" s="58"/>
-      <c r="E97" s="99" t="s">
+      <c r="E97" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="F97" s="100"/>
-      <c r="G97" s="100"/>
-      <c r="H97" s="101"/>
-      <c r="J97" s="115"/>
-      <c r="K97" s="115"/>
-      <c r="L97" s="115"/>
+      <c r="F97" s="92"/>
+      <c r="G97" s="92"/>
+      <c r="H97" s="93"/>
+      <c r="J97" s="116"/>
+      <c r="K97" s="116"/>
+      <c r="L97" s="116"/>
     </row>
     <row r="98" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="56"/>
       <c r="B98" s="59"/>
       <c r="C98" s="54"/>
       <c r="D98" s="57"/>
-      <c r="E98" s="99"/>
-      <c r="F98" s="100"/>
-      <c r="G98" s="100"/>
-      <c r="H98" s="101"/>
-      <c r="J98" s="115"/>
-      <c r="K98" s="115"/>
-      <c r="L98" s="115"/>
+      <c r="E98" s="91"/>
+      <c r="F98" s="92"/>
+      <c r="G98" s="92"/>
+      <c r="H98" s="93"/>
+      <c r="J98" s="116"/>
+      <c r="K98" s="116"/>
+      <c r="L98" s="116"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A99" s="128" t="s">
-        <v>63</v>
-      </c>
-      <c r="B99" s="128"/>
-      <c r="C99" s="128"/>
-      <c r="D99" s="129"/>
-      <c r="E99" s="99"/>
-      <c r="F99" s="100"/>
-      <c r="G99" s="100"/>
-      <c r="H99" s="101"/>
+      <c r="A99" s="135" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99" s="135"/>
+      <c r="C99" s="135"/>
+      <c r="D99" s="136"/>
+      <c r="E99" s="91"/>
+      <c r="F99" s="92"/>
+      <c r="G99" s="92"/>
+      <c r="H99" s="93"/>
       <c r="J99" s="46"/>
       <c r="K99" s="46"/>
       <c r="L99" s="46"/>
@@ -3423,21 +3543,21 @@
         <v>0</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
-      <c r="E104" s="116" t="s">
-        <v>73</v>
-      </c>
-      <c r="F104" s="116"/>
-      <c r="G104" s="116"/>
-      <c r="H104" s="117"/>
-      <c r="J104" s="114" t="s">
-        <v>66</v>
-      </c>
-      <c r="K104" s="115"/>
-      <c r="L104" s="115"/>
+      <c r="E104" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="F104" s="117"/>
+      <c r="G104" s="117"/>
+      <c r="H104" s="118"/>
+      <c r="J104" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="K104" s="116"/>
+      <c r="L104" s="116"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A105" s="7" t="s">
@@ -3452,15 +3572,15 @@
       <c r="D105" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E105" s="118" t="s">
+      <c r="E105" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="F105" s="119"/>
-      <c r="G105" s="119"/>
-      <c r="H105" s="120"/>
-      <c r="J105" s="115"/>
-      <c r="K105" s="115"/>
-      <c r="L105" s="115"/>
+      <c r="F105" s="101"/>
+      <c r="G105" s="101"/>
+      <c r="H105" s="102"/>
+      <c r="J105" s="116"/>
+      <c r="K105" s="116"/>
+      <c r="L105" s="116"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A106" s="3" t="s">
@@ -3475,13 +3595,13 @@
       <c r="D106" s="6">
         <v>0.72569444444444453</v>
       </c>
-      <c r="E106" s="118"/>
-      <c r="F106" s="119"/>
-      <c r="G106" s="119"/>
-      <c r="H106" s="120"/>
-      <c r="J106" s="115"/>
-      <c r="K106" s="115"/>
-      <c r="L106" s="115"/>
+      <c r="E106" s="100"/>
+      <c r="F106" s="101"/>
+      <c r="G106" s="101"/>
+      <c r="H106" s="102"/>
+      <c r="J106" s="116"/>
+      <c r="K106" s="116"/>
+      <c r="L106" s="116"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A107" s="9" t="s">
@@ -3496,17 +3616,17 @@
       <c r="D107" s="11">
         <v>0.71527777777777779</v>
       </c>
-      <c r="E107" s="124"/>
-      <c r="F107" s="125"/>
-      <c r="G107" s="125"/>
-      <c r="H107" s="126"/>
-      <c r="J107" s="115"/>
-      <c r="K107" s="115"/>
-      <c r="L107" s="115"/>
+      <c r="E107" s="103"/>
+      <c r="F107" s="104"/>
+      <c r="G107" s="104"/>
+      <c r="H107" s="105"/>
+      <c r="J107" s="116"/>
+      <c r="K107" s="116"/>
+      <c r="L107" s="116"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A108" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B108" s="26" t="s">
         <v>8</v>
@@ -3517,99 +3637,99 @@
       <c r="D108" s="10">
         <v>0.69444444444444453</v>
       </c>
-      <c r="E108" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="F108" s="122"/>
-      <c r="G108" s="122"/>
-      <c r="H108" s="123"/>
-      <c r="J108" s="115"/>
-      <c r="K108" s="115"/>
-      <c r="L108" s="115"/>
+      <c r="E108" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="F108" s="98"/>
+      <c r="G108" s="98"/>
+      <c r="H108" s="99"/>
+      <c r="J108" s="116"/>
+      <c r="K108" s="116"/>
+      <c r="L108" s="116"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A109" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B109" s="26"/>
       <c r="C109" s="10"/>
       <c r="D109" s="11">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E109" s="118"/>
-      <c r="F109" s="119"/>
-      <c r="G109" s="119"/>
-      <c r="H109" s="120"/>
-      <c r="J109" s="115"/>
-      <c r="K109" s="115"/>
-      <c r="L109" s="115"/>
+      <c r="E109" s="100"/>
+      <c r="F109" s="101"/>
+      <c r="G109" s="101"/>
+      <c r="H109" s="102"/>
+      <c r="J109" s="116"/>
+      <c r="K109" s="116"/>
+      <c r="L109" s="116"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A110" s="9"/>
       <c r="B110" s="44"/>
       <c r="C110" s="10"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="118"/>
-      <c r="F110" s="119"/>
-      <c r="G110" s="119"/>
-      <c r="H110" s="120"/>
-      <c r="J110" s="115"/>
-      <c r="K110" s="115"/>
-      <c r="L110" s="115"/>
+      <c r="E110" s="100"/>
+      <c r="F110" s="101"/>
+      <c r="G110" s="101"/>
+      <c r="H110" s="102"/>
+      <c r="J110" s="116"/>
+      <c r="K110" s="116"/>
+      <c r="L110" s="116"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A111" s="9"/>
       <c r="B111" s="8"/>
       <c r="C111" s="4"/>
       <c r="D111" s="45"/>
-      <c r="E111" s="118"/>
-      <c r="F111" s="119"/>
-      <c r="G111" s="119"/>
-      <c r="H111" s="120"/>
-      <c r="J111" s="115"/>
-      <c r="K111" s="115"/>
-      <c r="L111" s="115"/>
+      <c r="E111" s="100"/>
+      <c r="F111" s="101"/>
+      <c r="G111" s="101"/>
+      <c r="H111" s="102"/>
+      <c r="J111" s="116"/>
+      <c r="K111" s="116"/>
+      <c r="L111" s="116"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A112" s="9"/>
       <c r="B112" s="26"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
-      <c r="E112" s="124"/>
-      <c r="F112" s="125"/>
-      <c r="G112" s="125"/>
-      <c r="H112" s="126"/>
-      <c r="J112" s="115"/>
-      <c r="K112" s="115"/>
-      <c r="L112" s="115"/>
+      <c r="E112" s="103"/>
+      <c r="F112" s="104"/>
+      <c r="G112" s="104"/>
+      <c r="H112" s="105"/>
+      <c r="J112" s="116"/>
+      <c r="K112" s="116"/>
+      <c r="L112" s="116"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A113" s="30"/>
       <c r="B113" s="30"/>
       <c r="C113" s="30"/>
       <c r="D113" s="30"/>
-      <c r="J113" s="115"/>
-      <c r="K113" s="115"/>
-      <c r="L113" s="115"/>
+      <c r="J113" s="116"/>
+      <c r="K113" s="116"/>
+      <c r="L113" s="116"/>
     </row>
     <row r="114" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A114" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
-      <c r="E114" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="F114" s="88"/>
-      <c r="G114" s="88"/>
-      <c r="H114" s="89"/>
-      <c r="J114" s="115"/>
-      <c r="K114" s="115"/>
-      <c r="L114" s="115"/>
+      <c r="E114" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="F114" s="106"/>
+      <c r="G114" s="106"/>
+      <c r="H114" s="107"/>
+      <c r="J114" s="116"/>
+      <c r="K114" s="116"/>
+      <c r="L114" s="116"/>
     </row>
     <row r="115" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="17" t="s">
@@ -3624,15 +3744,15 @@
       <c r="D115" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E115" s="90" t="s">
+      <c r="E115" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="F115" s="91"/>
-      <c r="G115" s="91"/>
-      <c r="H115" s="92"/>
-      <c r="J115" s="115"/>
-      <c r="K115" s="115"/>
-      <c r="L115" s="115"/>
+      <c r="F115" s="109"/>
+      <c r="G115" s="109"/>
+      <c r="H115" s="110"/>
+      <c r="J115" s="116"/>
+      <c r="K115" s="116"/>
+      <c r="L115" s="116"/>
     </row>
     <row r="116" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="20" t="s">
@@ -3647,13 +3767,13 @@
       <c r="D116" s="27">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E116" s="90"/>
-      <c r="F116" s="91"/>
-      <c r="G116" s="91"/>
-      <c r="H116" s="92"/>
-      <c r="J116" s="115"/>
-      <c r="K116" s="115"/>
-      <c r="L116" s="115"/>
+      <c r="E116" s="108"/>
+      <c r="F116" s="109"/>
+      <c r="G116" s="109"/>
+      <c r="H116" s="110"/>
+      <c r="J116" s="116"/>
+      <c r="K116" s="116"/>
+      <c r="L116" s="116"/>
     </row>
     <row r="117" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="23" t="s">
@@ -3668,13 +3788,13 @@
       <c r="D117" s="24">
         <v>0.71180555555555547</v>
       </c>
-      <c r="E117" s="93"/>
-      <c r="F117" s="94"/>
-      <c r="G117" s="94"/>
-      <c r="H117" s="95"/>
-      <c r="J117" s="115"/>
-      <c r="K117" s="115"/>
-      <c r="L117" s="115"/>
+      <c r="E117" s="113"/>
+      <c r="F117" s="114"/>
+      <c r="G117" s="114"/>
+      <c r="H117" s="120"/>
+      <c r="J117" s="116"/>
+      <c r="K117" s="116"/>
+      <c r="L117" s="116"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A118" s="20" t="s">
@@ -3689,19 +3809,19 @@
       <c r="D118" s="25">
         <v>0.69791666666666663</v>
       </c>
-      <c r="E118" s="96" t="s">
+      <c r="E118" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="F118" s="97"/>
-      <c r="G118" s="97"/>
-      <c r="H118" s="98"/>
-      <c r="J118" s="115"/>
-      <c r="K118" s="115"/>
-      <c r="L118" s="115"/>
+      <c r="F118" s="112"/>
+      <c r="G118" s="112"/>
+      <c r="H118" s="119"/>
+      <c r="J118" s="116"/>
+      <c r="K118" s="116"/>
+      <c r="L118" s="116"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A119" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B119" s="28" t="s">
         <v>17</v>
@@ -3712,43 +3832,43 @@
       <c r="D119" s="25">
         <v>0.68055555555555547</v>
       </c>
-      <c r="E119" s="90"/>
-      <c r="F119" s="91"/>
-      <c r="G119" s="91"/>
-      <c r="H119" s="92"/>
-      <c r="J119" s="115"/>
-      <c r="K119" s="115"/>
-      <c r="L119" s="115"/>
+      <c r="E119" s="108"/>
+      <c r="F119" s="109"/>
+      <c r="G119" s="109"/>
+      <c r="H119" s="110"/>
+      <c r="J119" s="116"/>
+      <c r="K119" s="116"/>
+      <c r="L119" s="116"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A120" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B120" s="28"/>
       <c r="C120" s="24"/>
       <c r="D120" s="25">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E120" s="90"/>
-      <c r="F120" s="91"/>
-      <c r="G120" s="91"/>
-      <c r="H120" s="92"/>
-      <c r="J120" s="115"/>
-      <c r="K120" s="115"/>
-      <c r="L120" s="115"/>
+      <c r="E120" s="108"/>
+      <c r="F120" s="109"/>
+      <c r="G120" s="109"/>
+      <c r="H120" s="110"/>
+      <c r="J120" s="116"/>
+      <c r="K120" s="116"/>
+      <c r="L120" s="116"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A121" s="20"/>
       <c r="B121" s="28"/>
       <c r="C121" s="22"/>
       <c r="D121" s="24"/>
-      <c r="E121" s="93"/>
-      <c r="F121" s="94"/>
-      <c r="G121" s="94"/>
-      <c r="H121" s="95"/>
-      <c r="J121" s="115"/>
-      <c r="K121" s="115"/>
-      <c r="L121" s="115"/>
+      <c r="E121" s="113"/>
+      <c r="F121" s="114"/>
+      <c r="G121" s="114"/>
+      <c r="H121" s="120"/>
+      <c r="J121" s="116"/>
+      <c r="K121" s="116"/>
+      <c r="L121" s="116"/>
     </row>
     <row r="122" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A122" s="62"/>
@@ -3759,28 +3879,28 @@
       <c r="F122" s="72"/>
       <c r="G122" s="72"/>
       <c r="H122" s="72"/>
-      <c r="J122" s="115"/>
-      <c r="K122" s="115"/>
-      <c r="L122" s="115"/>
+      <c r="J122" s="116"/>
+      <c r="K122" s="116"/>
+      <c r="L122" s="116"/>
     </row>
     <row r="123" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A123" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C123" s="32"/>
       <c r="D123" s="32"/>
-      <c r="E123" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="F123" s="80"/>
-      <c r="G123" s="80"/>
-      <c r="H123" s="81"/>
-      <c r="J123" s="115"/>
-      <c r="K123" s="115"/>
-      <c r="L123" s="115"/>
+      <c r="E123" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="F123" s="82"/>
+      <c r="G123" s="82"/>
+      <c r="H123" s="83"/>
+      <c r="J123" s="116"/>
+      <c r="K123" s="116"/>
+      <c r="L123" s="116"/>
     </row>
     <row r="124" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="33" t="s">
@@ -3795,15 +3915,15 @@
       <c r="D124" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E124" s="73" t="s">
+      <c r="E124" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="F124" s="74"/>
-      <c r="G124" s="74"/>
-      <c r="H124" s="75"/>
-      <c r="J124" s="115"/>
-      <c r="K124" s="115"/>
-      <c r="L124" s="115"/>
+      <c r="F124" s="76"/>
+      <c r="G124" s="76"/>
+      <c r="H124" s="77"/>
+      <c r="J124" s="116"/>
+      <c r="K124" s="116"/>
+      <c r="L124" s="116"/>
     </row>
     <row r="125" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="36" t="s">
@@ -3818,13 +3938,13 @@
       <c r="D125" s="39">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E125" s="73"/>
-      <c r="F125" s="74"/>
-      <c r="G125" s="74"/>
-      <c r="H125" s="75"/>
-      <c r="J125" s="115"/>
-      <c r="K125" s="115"/>
-      <c r="L125" s="115"/>
+      <c r="E125" s="75"/>
+      <c r="F125" s="76"/>
+      <c r="G125" s="76"/>
+      <c r="H125" s="77"/>
+      <c r="J125" s="116"/>
+      <c r="K125" s="116"/>
+      <c r="L125" s="116"/>
     </row>
     <row r="126" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="40" t="s">
@@ -3839,93 +3959,93 @@
       <c r="D126" s="42">
         <v>0.70138888888888884</v>
       </c>
-      <c r="E126" s="76"/>
-      <c r="F126" s="77"/>
-      <c r="G126" s="77"/>
-      <c r="H126" s="78"/>
-      <c r="J126" s="115"/>
-      <c r="K126" s="115"/>
-      <c r="L126" s="115"/>
+      <c r="E126" s="78"/>
+      <c r="F126" s="79"/>
+      <c r="G126" s="79"/>
+      <c r="H126" s="80"/>
+      <c r="J126" s="116"/>
+      <c r="K126" s="116"/>
+      <c r="L126" s="116"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A127" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B127" s="43"/>
       <c r="C127" s="38"/>
       <c r="D127" s="42">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E127" s="79" t="s">
+      <c r="E127" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F127" s="80"/>
-      <c r="G127" s="80"/>
-      <c r="H127" s="81"/>
-      <c r="J127" s="115"/>
-      <c r="K127" s="115"/>
-      <c r="L127" s="115"/>
+      <c r="F127" s="82"/>
+      <c r="G127" s="82"/>
+      <c r="H127" s="83"/>
+      <c r="J127" s="116"/>
+      <c r="K127" s="116"/>
+      <c r="L127" s="116"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A128" s="36"/>
       <c r="B128" s="43"/>
       <c r="C128" s="41"/>
       <c r="D128" s="41"/>
-      <c r="E128" s="82"/>
-      <c r="F128" s="83"/>
-      <c r="G128" s="83"/>
-      <c r="H128" s="84"/>
-      <c r="J128" s="115"/>
-      <c r="K128" s="115"/>
-      <c r="L128" s="115"/>
+      <c r="E128" s="84"/>
+      <c r="F128" s="85"/>
+      <c r="G128" s="85"/>
+      <c r="H128" s="86"/>
+      <c r="J128" s="116"/>
+      <c r="K128" s="116"/>
+      <c r="L128" s="116"/>
     </row>
     <row r="129" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="40"/>
       <c r="B129" s="43"/>
       <c r="C129" s="41"/>
       <c r="D129" s="41"/>
-      <c r="E129" s="85"/>
-      <c r="F129" s="86"/>
-      <c r="G129" s="86"/>
-      <c r="H129" s="87"/>
-      <c r="J129" s="115"/>
-      <c r="K129" s="115"/>
-      <c r="L129" s="115"/>
+      <c r="E129" s="87"/>
+      <c r="F129" s="88"/>
+      <c r="G129" s="88"/>
+      <c r="H129" s="89"/>
+      <c r="J129" s="116"/>
+      <c r="K129" s="116"/>
+      <c r="L129" s="116"/>
     </row>
     <row r="130" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J130" s="115"/>
-      <c r="K130" s="115"/>
-      <c r="L130" s="115"/>
+      <c r="J130" s="116"/>
+      <c r="K130" s="116"/>
+      <c r="L130" s="116"/>
     </row>
     <row r="131" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J131" s="115"/>
-      <c r="K131" s="115"/>
-      <c r="L131" s="115"/>
+      <c r="J131" s="116"/>
+      <c r="K131" s="116"/>
+      <c r="L131" s="116"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="J132" s="115"/>
-      <c r="K132" s="115"/>
-      <c r="L132" s="115"/>
+      <c r="J132" s="116"/>
+      <c r="K132" s="116"/>
+      <c r="L132" s="116"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="J133" s="115"/>
-      <c r="K133" s="115"/>
-      <c r="L133" s="115"/>
+      <c r="J133" s="116"/>
+      <c r="K133" s="116"/>
+      <c r="L133" s="116"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="J134" s="115"/>
-      <c r="K134" s="115"/>
-      <c r="L134" s="115"/>
+      <c r="J134" s="116"/>
+      <c r="K134" s="116"/>
+      <c r="L134" s="116"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="J135" s="115"/>
-      <c r="K135" s="115"/>
-      <c r="L135" s="115"/>
+      <c r="J135" s="116"/>
+      <c r="K135" s="116"/>
+      <c r="L135" s="116"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="J136" s="115"/>
-      <c r="K136" s="115"/>
-      <c r="L136" s="115"/>
+      <c r="J136" s="116"/>
+      <c r="K136" s="116"/>
+      <c r="L136" s="116"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.4">
       <c r="J137" s="46"/>
@@ -3937,7 +4057,7 @@
       <c r="K138" s="46"/>
       <c r="L138" s="46"/>
     </row>
-    <row r="140" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="140" spans="1:12" s="137" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="142" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="12" t="s">
         <v>0</v>
@@ -3947,17 +4067,17 @@
       </c>
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
-      <c r="E142" s="116" t="s">
+      <c r="E142" s="117" t="s">
+        <v>53</v>
+      </c>
+      <c r="F142" s="117"/>
+      <c r="G142" s="117"/>
+      <c r="H142" s="118"/>
+      <c r="J142" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="F142" s="116"/>
-      <c r="G142" s="116"/>
-      <c r="H142" s="117"/>
-      <c r="J142" s="115" t="s">
-        <v>55</v>
-      </c>
-      <c r="K142" s="115"/>
-      <c r="L142" s="115"/>
+      <c r="K142" s="116"/>
+      <c r="L142" s="116"/>
     </row>
     <row r="143" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="7" t="s">
@@ -3972,15 +4092,15 @@
       <c r="D143" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E143" s="118" t="s">
+      <c r="E143" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="F143" s="119"/>
-      <c r="G143" s="119"/>
-      <c r="H143" s="120"/>
-      <c r="J143" s="115"/>
-      <c r="K143" s="115"/>
-      <c r="L143" s="115"/>
+      <c r="F143" s="101"/>
+      <c r="G143" s="101"/>
+      <c r="H143" s="102"/>
+      <c r="J143" s="116"/>
+      <c r="K143" s="116"/>
+      <c r="L143" s="116"/>
     </row>
     <row r="144" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="3" t="s">
@@ -3993,15 +4113,15 @@
         <v>0.30902777777777779</v>
       </c>
       <c r="D144" s="6">
-        <v>0.72569444444444453</v>
-      </c>
-      <c r="E144" s="118"/>
-      <c r="F144" s="119"/>
-      <c r="G144" s="119"/>
-      <c r="H144" s="120"/>
-      <c r="J144" s="115"/>
-      <c r="K144" s="115"/>
-      <c r="L144" s="115"/>
+        <v>0.71875</v>
+      </c>
+      <c r="E144" s="100"/>
+      <c r="F144" s="101"/>
+      <c r="G144" s="101"/>
+      <c r="H144" s="102"/>
+      <c r="J144" s="116"/>
+      <c r="K144" s="116"/>
+      <c r="L144" s="116"/>
     </row>
     <row r="145" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="9" t="s">
@@ -4014,15 +4134,15 @@
         <v>0.31944444444444448</v>
       </c>
       <c r="D145" s="11">
-        <v>0.71875</v>
-      </c>
-      <c r="E145" s="118"/>
-      <c r="F145" s="119"/>
-      <c r="G145" s="119"/>
-      <c r="H145" s="120"/>
-      <c r="J145" s="115"/>
-      <c r="K145" s="115"/>
-      <c r="L145" s="115"/>
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="E145" s="100"/>
+      <c r="F145" s="101"/>
+      <c r="G145" s="101"/>
+      <c r="H145" s="102"/>
+      <c r="J145" s="116"/>
+      <c r="K145" s="116"/>
+      <c r="L145" s="116"/>
     </row>
     <row r="146" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="9" t="s">
@@ -4035,499 +4155,1598 @@
         <v>0.35069444444444442</v>
       </c>
       <c r="D146" s="10">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="E146" s="121" t="s">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="E146" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="F146" s="122"/>
-      <c r="G146" s="122"/>
-      <c r="H146" s="123"/>
-      <c r="J146" s="115"/>
-      <c r="K146" s="115"/>
-      <c r="L146" s="115"/>
+      <c r="F146" s="98"/>
+      <c r="G146" s="98"/>
+      <c r="H146" s="99"/>
+      <c r="J146" s="116"/>
+      <c r="K146" s="116"/>
+      <c r="L146" s="116"/>
     </row>
     <row r="147" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="3"/>
       <c r="B147" s="26"/>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
-      <c r="E147" s="118"/>
-      <c r="F147" s="119"/>
-      <c r="G147" s="119"/>
-      <c r="H147" s="120"/>
-      <c r="J147" s="115"/>
-      <c r="K147" s="115"/>
-      <c r="L147" s="115"/>
+      <c r="E147" s="100"/>
+      <c r="F147" s="101"/>
+      <c r="G147" s="101"/>
+      <c r="H147" s="102"/>
+      <c r="J147" s="116"/>
+      <c r="K147" s="116"/>
+      <c r="L147" s="116"/>
     </row>
     <row r="148" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="9"/>
       <c r="B148" s="44"/>
       <c r="C148" s="10"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="118"/>
-      <c r="F148" s="119"/>
-      <c r="G148" s="119"/>
-      <c r="H148" s="120"/>
-      <c r="J148" s="115"/>
-      <c r="K148" s="115"/>
-      <c r="L148" s="115"/>
+      <c r="E148" s="100"/>
+      <c r="F148" s="101"/>
+      <c r="G148" s="101"/>
+      <c r="H148" s="102"/>
+      <c r="J148" s="116"/>
+      <c r="K148" s="116"/>
+      <c r="L148" s="116"/>
     </row>
     <row r="149" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="9"/>
       <c r="B149" s="8"/>
       <c r="C149" s="4"/>
       <c r="D149" s="45"/>
-      <c r="E149" s="118"/>
-      <c r="F149" s="119"/>
-      <c r="G149" s="119"/>
-      <c r="H149" s="120"/>
-      <c r="J149" s="115"/>
-      <c r="K149" s="115"/>
-      <c r="L149" s="115"/>
+      <c r="E149" s="103"/>
+      <c r="F149" s="104"/>
+      <c r="G149" s="104"/>
+      <c r="H149" s="105"/>
+      <c r="J149" s="116"/>
+      <c r="K149" s="116"/>
+      <c r="L149" s="116"/>
     </row>
     <row r="150" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="9"/>
-      <c r="B150" s="26"/>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="124"/>
-      <c r="F150" s="125"/>
-      <c r="G150" s="125"/>
-      <c r="H150" s="126"/>
-      <c r="J150" s="115"/>
-      <c r="K150" s="115"/>
-      <c r="L150" s="115"/>
+      <c r="A150" s="30"/>
+      <c r="B150" s="30"/>
+      <c r="C150" s="30"/>
+      <c r="D150" s="30"/>
+      <c r="J150" s="116"/>
+      <c r="K150" s="116"/>
+      <c r="L150" s="116"/>
     </row>
     <row r="151" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="30"/>
-      <c r="B151" s="30"/>
-      <c r="C151" s="30"/>
-      <c r="D151" s="30"/>
-      <c r="J151" s="115"/>
-      <c r="K151" s="115"/>
-      <c r="L151" s="115"/>
+      <c r="A151" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="16"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="106" t="s">
+        <v>53</v>
+      </c>
+      <c r="F151" s="106"/>
+      <c r="G151" s="106"/>
+      <c r="H151" s="107"/>
+      <c r="J151" s="116"/>
+      <c r="K151" s="116"/>
+      <c r="L151" s="116"/>
     </row>
     <row r="152" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B152" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C152" s="16"/>
-      <c r="D152" s="16"/>
-      <c r="E152" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="F152" s="88"/>
-      <c r="G152" s="88"/>
-      <c r="H152" s="89"/>
-      <c r="J152" s="115"/>
-      <c r="K152" s="115"/>
-      <c r="L152" s="115"/>
+      <c r="A152" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="F152" s="109"/>
+      <c r="G152" s="109"/>
+      <c r="H152" s="110"/>
+      <c r="J152" s="116"/>
+      <c r="K152" s="116"/>
+      <c r="L152" s="116"/>
     </row>
     <row r="153" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="17" t="s">
+      <c r="A153" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B153" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" s="22">
+        <v>0.3125</v>
+      </c>
+      <c r="D153" s="27">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E153" s="108"/>
+      <c r="F153" s="109"/>
+      <c r="G153" s="109"/>
+      <c r="H153" s="110"/>
+      <c r="J153" s="116"/>
+      <c r="K153" s="116"/>
+      <c r="L153" s="116"/>
+    </row>
+    <row r="154" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A154" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B154" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" s="24">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="D154" s="24">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E154" s="108"/>
+      <c r="F154" s="109"/>
+      <c r="G154" s="109"/>
+      <c r="H154" s="110"/>
+      <c r="J154" s="116"/>
+      <c r="K154" s="116"/>
+      <c r="L154" s="116"/>
+    </row>
+    <row r="155" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A155" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B155" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" s="24">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D155" s="25">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E155" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="F155" s="112"/>
+      <c r="G155" s="112"/>
+      <c r="H155" s="119"/>
+      <c r="J155" s="116"/>
+      <c r="K155" s="116"/>
+      <c r="L155" s="116"/>
+    </row>
+    <row r="156" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A156" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B156" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="24">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="D156" s="25">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="E156" s="108"/>
+      <c r="F156" s="109"/>
+      <c r="G156" s="109"/>
+      <c r="H156" s="110"/>
+      <c r="J156" s="116"/>
+      <c r="K156" s="116"/>
+      <c r="L156" s="116"/>
+    </row>
+    <row r="157" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A157" s="23"/>
+      <c r="B157" s="28"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="22"/>
+      <c r="E157" s="113"/>
+      <c r="F157" s="114"/>
+      <c r="G157" s="114"/>
+      <c r="H157" s="120"/>
+      <c r="J157" s="116"/>
+      <c r="K157" s="116"/>
+      <c r="L157" s="116"/>
+    </row>
+    <row r="158" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D158" s="14"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="14"/>
+      <c r="G158" s="14"/>
+      <c r="H158" s="14"/>
+      <c r="J158" s="116"/>
+      <c r="K158" s="116"/>
+      <c r="L158" s="116"/>
+    </row>
+    <row r="159" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A159" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B159" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C159" s="32"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="F159" s="82"/>
+      <c r="G159" s="82"/>
+      <c r="H159" s="82"/>
+      <c r="I159" s="29"/>
+      <c r="J159" s="116"/>
+      <c r="K159" s="116"/>
+      <c r="L159" s="116"/>
+    </row>
+    <row r="160" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A160" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B153" s="18" t="s">
+      <c r="B160" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C153" s="17" t="s">
+      <c r="C160" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D153" s="19" t="s">
+      <c r="D160" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E153" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="F153" s="91"/>
-      <c r="G153" s="91"/>
-      <c r="H153" s="92"/>
-      <c r="J153" s="115"/>
-      <c r="K153" s="115"/>
-      <c r="L153" s="115"/>
-    </row>
-    <row r="154" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A154" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B154" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C154" s="22">
-        <v>0.3125</v>
-      </c>
-      <c r="D154" s="27">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="E154" s="90"/>
-      <c r="F154" s="91"/>
-      <c r="G154" s="91"/>
-      <c r="H154" s="92"/>
-      <c r="J154" s="115"/>
-      <c r="K154" s="115"/>
-      <c r="L154" s="115"/>
-    </row>
-    <row r="155" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A155" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B155" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C155" s="24">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="D155" s="24">
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="E155" s="90"/>
-      <c r="F155" s="91"/>
-      <c r="G155" s="91"/>
-      <c r="H155" s="92"/>
-      <c r="J155" s="115"/>
-      <c r="K155" s="115"/>
-      <c r="L155" s="115"/>
-    </row>
-    <row r="156" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B156" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C156" s="24">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D156" s="25">
-        <v>0.71527777777777779</v>
-      </c>
-      <c r="E156" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="F156" s="97"/>
-      <c r="G156" s="97"/>
-      <c r="H156" s="98"/>
-      <c r="J156" s="115"/>
-      <c r="K156" s="115"/>
-      <c r="L156" s="115"/>
-    </row>
-    <row r="157" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A157" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B157" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="24">
-        <v>0.34722222222222227</v>
-      </c>
-      <c r="D157" s="25">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="E157" s="90"/>
-      <c r="F157" s="91"/>
-      <c r="G157" s="91"/>
-      <c r="H157" s="92"/>
-      <c r="J157" s="115"/>
-      <c r="K157" s="115"/>
-      <c r="L157" s="115"/>
-    </row>
-    <row r="158" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="23"/>
-      <c r="B158" s="28"/>
-      <c r="C158" s="24"/>
-      <c r="D158" s="22"/>
-      <c r="E158" s="93"/>
-      <c r="F158" s="94"/>
-      <c r="G158" s="94"/>
-      <c r="H158" s="95"/>
-      <c r="J158" s="115"/>
-      <c r="K158" s="115"/>
-      <c r="L158" s="115"/>
-    </row>
-    <row r="159" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D159" s="14"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
-      <c r="H159" s="14"/>
-      <c r="J159" s="115"/>
-      <c r="K159" s="115"/>
-      <c r="L159" s="115"/>
-    </row>
-    <row r="160" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B160" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C160" s="32"/>
-      <c r="D160" s="32"/>
-      <c r="E160" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="F160" s="80"/>
-      <c r="G160" s="80"/>
-      <c r="H160" s="80"/>
-      <c r="I160" s="29"/>
-      <c r="J160" s="115"/>
-      <c r="K160" s="115"/>
-      <c r="L160" s="115"/>
+      <c r="E160" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="F160" s="76"/>
+      <c r="G160" s="76"/>
+      <c r="H160" s="77"/>
+      <c r="J160" s="116"/>
+      <c r="K160" s="116"/>
+      <c r="L160" s="116"/>
     </row>
     <row r="161" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A161" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B161" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C161" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E161" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="F161" s="74"/>
-      <c r="G161" s="74"/>
-      <c r="H161" s="75"/>
-      <c r="J161" s="115"/>
-      <c r="K161" s="115"/>
-      <c r="L161" s="115"/>
+      <c r="A161" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B161" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C161" s="38">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D161" s="39">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="E161" s="75"/>
+      <c r="F161" s="76"/>
+      <c r="G161" s="76"/>
+      <c r="H161" s="77"/>
+      <c r="J161" s="116"/>
+      <c r="K161" s="116"/>
+      <c r="L161" s="116"/>
     </row>
     <row r="162" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="36" t="s">
-        <v>25</v>
+      <c r="A162" s="40" t="s">
+        <v>26</v>
       </c>
       <c r="B162" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C162" s="38">
-        <v>0.31944444444444448</v>
-      </c>
-      <c r="D162" s="39">
-        <v>0.73263888888888884</v>
-      </c>
-      <c r="E162" s="73"/>
-      <c r="F162" s="74"/>
-      <c r="G162" s="74"/>
-      <c r="H162" s="75"/>
-      <c r="J162" s="115"/>
-      <c r="K162" s="115"/>
-      <c r="L162" s="115"/>
+        <v>22</v>
+      </c>
+      <c r="C162" s="41">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D162" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E162" s="78"/>
+      <c r="F162" s="79"/>
+      <c r="G162" s="79"/>
+      <c r="H162" s="80"/>
+      <c r="J162" s="116"/>
+      <c r="K162" s="116"/>
+      <c r="L162" s="116"/>
     </row>
     <row r="163" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B163" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="38">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D163" s="41">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="E163" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="F163" s="82"/>
+      <c r="G163" s="82"/>
+      <c r="H163" s="83"/>
+      <c r="J163" s="116"/>
+      <c r="K163" s="116"/>
+      <c r="L163" s="116"/>
+    </row>
+    <row r="164" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A164" s="36"/>
+      <c r="B164" s="43"/>
+      <c r="C164" s="41"/>
+      <c r="D164" s="41"/>
+      <c r="E164" s="84"/>
+      <c r="F164" s="85"/>
+      <c r="G164" s="85"/>
+      <c r="H164" s="86"/>
+      <c r="J164" s="116"/>
+      <c r="K164" s="116"/>
+      <c r="L164" s="116"/>
+    </row>
+    <row r="165" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A165" s="40"/>
+      <c r="B165" s="43"/>
+      <c r="C165" s="38"/>
+      <c r="D165" s="41"/>
+      <c r="E165" s="87"/>
+      <c r="F165" s="88"/>
+      <c r="G165" s="88"/>
+      <c r="H165" s="89"/>
+      <c r="J165" s="116"/>
+      <c r="K165" s="116"/>
+      <c r="L165" s="116"/>
+    </row>
+    <row r="166" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C166" s="14"/>
+      <c r="J166" s="116"/>
+      <c r="K166" s="116"/>
+      <c r="L166" s="116"/>
+    </row>
+    <row r="167" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A167" s="121" t="s">
+        <v>39</v>
+      </c>
+      <c r="B167" s="121"/>
+      <c r="C167" s="48"/>
+      <c r="D167" s="48"/>
+      <c r="E167" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="F167" s="90"/>
+      <c r="G167" s="90"/>
+      <c r="H167" s="90"/>
+      <c r="I167" s="29"/>
+      <c r="J167" s="116"/>
+      <c r="K167" s="116"/>
+      <c r="L167" s="116"/>
+    </row>
+    <row r="168" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A168" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="F168" s="92"/>
+      <c r="G168" s="92"/>
+      <c r="H168" s="93"/>
+      <c r="J168" s="116"/>
+      <c r="K168" s="116"/>
+      <c r="L168" s="116"/>
+    </row>
+    <row r="169" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A169" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B169" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C169" s="54">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D169" s="55">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E169" s="94"/>
+      <c r="F169" s="95"/>
+      <c r="G169" s="95"/>
+      <c r="H169" s="96"/>
+      <c r="J169" s="116"/>
+      <c r="K169" s="116"/>
+      <c r="L169" s="116"/>
+    </row>
+    <row r="170" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A170" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B170" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C170" s="57">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D170" s="58">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="E170" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="F170" s="92"/>
+      <c r="G170" s="92"/>
+      <c r="H170" s="93"/>
+      <c r="J170" s="116"/>
+      <c r="K170" s="116"/>
+      <c r="L170" s="116"/>
+    </row>
+    <row r="171" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A171" s="56"/>
+      <c r="B171" s="59"/>
+      <c r="C171" s="54"/>
+      <c r="D171" s="57"/>
+      <c r="E171" s="94"/>
+      <c r="F171" s="95"/>
+      <c r="G171" s="95"/>
+      <c r="H171" s="96"/>
+      <c r="J171" s="116"/>
+      <c r="K171" s="116"/>
+      <c r="L171" s="116"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C172" s="14"/>
+    </row>
+    <row r="173" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="175" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A175" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C175" s="13"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="117" t="s">
+        <v>77</v>
+      </c>
+      <c r="F175" s="117"/>
+      <c r="G175" s="117"/>
+      <c r="H175" s="118"/>
+      <c r="J175" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="K175" s="116"/>
+      <c r="L175" s="116"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A176" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="F176" s="101"/>
+      <c r="G176" s="101"/>
+      <c r="H176" s="102"/>
+      <c r="J176" s="116"/>
+      <c r="K176" s="116"/>
+      <c r="L176" s="116"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A177" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" s="4">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="D177" s="6">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="E177" s="100"/>
+      <c r="F177" s="101"/>
+      <c r="G177" s="101"/>
+      <c r="H177" s="102"/>
+      <c r="J177" s="116"/>
+      <c r="K177" s="116"/>
+      <c r="L177" s="116"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A178" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="10">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D178" s="11">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E178" s="100"/>
+      <c r="F178" s="101"/>
+      <c r="G178" s="101"/>
+      <c r="H178" s="102"/>
+      <c r="J178" s="116"/>
+      <c r="K178" s="116"/>
+      <c r="L178" s="116"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A179" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C179" s="4">
+        <v>0.34375</v>
+      </c>
+      <c r="D179" s="10">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="E179" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="F179" s="98"/>
+      <c r="G179" s="98"/>
+      <c r="H179" s="99"/>
+      <c r="J179" s="116"/>
+      <c r="K179" s="116"/>
+      <c r="L179" s="116"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A180" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B180" s="26"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E180" s="100"/>
+      <c r="F180" s="101"/>
+      <c r="G180" s="101"/>
+      <c r="H180" s="102"/>
+      <c r="J180" s="116"/>
+      <c r="K180" s="116"/>
+      <c r="L180" s="116"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A181" s="9"/>
+      <c r="B181" s="44"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="100"/>
+      <c r="F181" s="101"/>
+      <c r="G181" s="101"/>
+      <c r="H181" s="102"/>
+      <c r="J181" s="116"/>
+      <c r="K181" s="116"/>
+      <c r="L181" s="116"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A182" s="9"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="45"/>
+      <c r="E182" s="103"/>
+      <c r="F182" s="104"/>
+      <c r="G182" s="104"/>
+      <c r="H182" s="105"/>
+      <c r="J182" s="116"/>
+      <c r="K182" s="116"/>
+      <c r="L182" s="116"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A183" s="30"/>
+      <c r="B183" s="30"/>
+      <c r="C183" s="30"/>
+      <c r="D183" s="30"/>
+      <c r="J183" s="116"/>
+      <c r="K183" s="116"/>
+      <c r="L183" s="116"/>
+    </row>
+    <row r="184" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A184" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B184" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C184" s="16"/>
+      <c r="D184" s="16"/>
+      <c r="E184" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="F184" s="106"/>
+      <c r="G184" s="106"/>
+      <c r="H184" s="107"/>
+      <c r="J184" s="116"/>
+      <c r="K184" s="116"/>
+      <c r="L184" s="116"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A185" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="F185" s="109"/>
+      <c r="G185" s="109"/>
+      <c r="H185" s="110"/>
+      <c r="J185" s="116"/>
+      <c r="K185" s="116"/>
+      <c r="L185" s="116"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A186" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B186" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C186" s="22">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D186" s="27">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="E186" s="108"/>
+      <c r="F186" s="109"/>
+      <c r="G186" s="109"/>
+      <c r="H186" s="110"/>
+      <c r="J186" s="116"/>
+      <c r="K186" s="116"/>
+      <c r="L186" s="116"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A187" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B187" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C187" s="24">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D187" s="24">
+        <v>0.71875</v>
+      </c>
+      <c r="E187" s="108"/>
+      <c r="F187" s="109"/>
+      <c r="G187" s="109"/>
+      <c r="H187" s="110"/>
+      <c r="J187" s="116"/>
+      <c r="K187" s="116"/>
+      <c r="L187" s="116"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A188" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C188" s="24">
+        <v>0.34375</v>
+      </c>
+      <c r="D188" s="25">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E188" s="111" t="s">
+        <v>79</v>
+      </c>
+      <c r="F188" s="112"/>
+      <c r="G188" s="112"/>
+      <c r="H188" s="119"/>
+      <c r="J188" s="116"/>
+      <c r="K188" s="116"/>
+      <c r="L188" s="116"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A189" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B189" s="28"/>
+      <c r="C189" s="24"/>
+      <c r="D189" s="25">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E189" s="108"/>
+      <c r="F189" s="109"/>
+      <c r="G189" s="109"/>
+      <c r="H189" s="110"/>
+      <c r="J189" s="116"/>
+      <c r="K189" s="116"/>
+      <c r="L189" s="116"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A190" s="23"/>
+      <c r="B190" s="28"/>
+      <c r="C190" s="24"/>
+      <c r="D190" s="22"/>
+      <c r="E190" s="113"/>
+      <c r="F190" s="114"/>
+      <c r="G190" s="114"/>
+      <c r="H190" s="120"/>
+      <c r="J190" s="116"/>
+      <c r="K190" s="116"/>
+      <c r="L190" s="116"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="D191" s="14"/>
+      <c r="E191" s="14"/>
+      <c r="F191" s="14"/>
+      <c r="G191" s="14"/>
+      <c r="H191" s="14"/>
+      <c r="J191" s="116"/>
+      <c r="K191" s="116"/>
+      <c r="L191" s="116"/>
+    </row>
+    <row r="192" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A192" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B192" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C192" s="32"/>
+      <c r="D192" s="32"/>
+      <c r="E192" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="F192" s="82"/>
+      <c r="G192" s="82"/>
+      <c r="H192" s="82"/>
+      <c r="I192" s="29"/>
+      <c r="J192" s="116"/>
+      <c r="K192" s="116"/>
+      <c r="L192" s="116"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A193" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E193" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="F193" s="76"/>
+      <c r="G193" s="76"/>
+      <c r="H193" s="77"/>
+      <c r="J193" s="116"/>
+      <c r="K193" s="116"/>
+      <c r="L193" s="116"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A194" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B194" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C194" s="38">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D194" s="39">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E194" s="75"/>
+      <c r="F194" s="76"/>
+      <c r="G194" s="76"/>
+      <c r="H194" s="77"/>
+      <c r="J194" s="116"/>
+      <c r="K194" s="116"/>
+      <c r="L194" s="116"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A195" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B163" s="37" t="s">
+      <c r="B195" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C163" s="41">
+      <c r="C195" s="41">
         <v>0.34027777777777773</v>
       </c>
-      <c r="D163" s="42">
+      <c r="D195" s="42">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="E195" s="78"/>
+      <c r="F195" s="79"/>
+      <c r="G195" s="79"/>
+      <c r="H195" s="80"/>
+      <c r="J195" s="116"/>
+      <c r="K195" s="116"/>
+      <c r="L195" s="116"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A196" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B196" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" s="38">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="D196" s="41">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="E196" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="F196" s="82"/>
+      <c r="G196" s="82"/>
+      <c r="H196" s="83"/>
+      <c r="J196" s="116"/>
+      <c r="K196" s="116"/>
+      <c r="L196" s="116"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A197" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B197" s="43"/>
+      <c r="C197" s="41"/>
+      <c r="D197" s="41">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E197" s="84"/>
+      <c r="F197" s="85"/>
+      <c r="G197" s="85"/>
+      <c r="H197" s="86"/>
+      <c r="J197" s="116"/>
+      <c r="K197" s="116"/>
+      <c r="L197" s="116"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A198" s="40"/>
+      <c r="B198" s="43"/>
+      <c r="C198" s="38"/>
+      <c r="D198" s="41"/>
+      <c r="E198" s="87"/>
+      <c r="F198" s="88"/>
+      <c r="G198" s="88"/>
+      <c r="H198" s="89"/>
+      <c r="J198" s="116"/>
+      <c r="K198" s="116"/>
+      <c r="L198" s="116"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C199" s="14"/>
+      <c r="J199" s="116"/>
+      <c r="K199" s="116"/>
+      <c r="L199" s="116"/>
+    </row>
+    <row r="200" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A200" s="74"/>
+      <c r="B200" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C200" s="48"/>
+      <c r="D200" s="48"/>
+      <c r="E200" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="F200" s="90"/>
+      <c r="G200" s="90"/>
+      <c r="H200" s="90"/>
+      <c r="I200" s="29"/>
+      <c r="J200" s="116"/>
+      <c r="K200" s="116"/>
+      <c r="L200" s="116"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A201" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E201" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="F201" s="92"/>
+      <c r="G201" s="92"/>
+      <c r="H201" s="93"/>
+      <c r="J201" s="116"/>
+      <c r="K201" s="116"/>
+      <c r="L201" s="116"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A202" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B202" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C202" s="54">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D202" s="55">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="E202" s="94"/>
+      <c r="F202" s="95"/>
+      <c r="G202" s="95"/>
+      <c r="H202" s="96"/>
+      <c r="J202" s="116"/>
+      <c r="K202" s="116"/>
+      <c r="L202" s="116"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A203" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B203" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C203" s="57">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D203" s="58">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E163" s="76"/>
-      <c r="F163" s="77"/>
-      <c r="G163" s="77"/>
-      <c r="H163" s="78"/>
-      <c r="J163" s="115"/>
-      <c r="K163" s="115"/>
-      <c r="L163" s="115"/>
-    </row>
-    <row r="164" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A164" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B164" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="38">
+      <c r="E203" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="F203" s="92"/>
+      <c r="G203" s="92"/>
+      <c r="H203" s="93"/>
+      <c r="J203" s="116"/>
+      <c r="K203" s="116"/>
+      <c r="L203" s="116"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A204" s="56"/>
+      <c r="B204" s="59"/>
+      <c r="C204" s="57"/>
+      <c r="D204" s="57"/>
+      <c r="E204" s="94"/>
+      <c r="F204" s="95"/>
+      <c r="G204" s="95"/>
+      <c r="H204" s="96"/>
+      <c r="J204" s="116"/>
+      <c r="K204" s="116"/>
+      <c r="L204" s="116"/>
+    </row>
+    <row r="206" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="208" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A208" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C208" s="13"/>
+      <c r="D208" s="13"/>
+      <c r="E208" s="117" t="s">
+        <v>82</v>
+      </c>
+      <c r="F208" s="117"/>
+      <c r="G208" s="117"/>
+      <c r="H208" s="118"/>
+      <c r="J208" s="115" t="s">
+        <v>81</v>
+      </c>
+      <c r="K208" s="116"/>
+      <c r="L208" s="116"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A209" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E209" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="F209" s="101"/>
+      <c r="G209" s="101"/>
+      <c r="H209" s="102"/>
+      <c r="J209" s="116"/>
+      <c r="K209" s="116"/>
+      <c r="L209" s="116"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A210" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210" s="4">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="D210" s="6">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="E210" s="100"/>
+      <c r="F210" s="101"/>
+      <c r="G210" s="101"/>
+      <c r="H210" s="102"/>
+      <c r="J210" s="116"/>
+      <c r="K210" s="116"/>
+      <c r="L210" s="116"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A211" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" s="10">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D211" s="11">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="E211" s="100"/>
+      <c r="F211" s="101"/>
+      <c r="G211" s="101"/>
+      <c r="H211" s="102"/>
+      <c r="J211" s="116"/>
+      <c r="K211" s="116"/>
+      <c r="L211" s="116"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A212" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B212" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C212" s="4">
+        <v>0.34375</v>
+      </c>
+      <c r="D212" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E212" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="F212" s="98"/>
+      <c r="G212" s="98"/>
+      <c r="H212" s="99"/>
+      <c r="J212" s="116"/>
+      <c r="K212" s="116"/>
+      <c r="L212" s="116"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A213" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B213" s="26"/>
+      <c r="C213" s="10"/>
+      <c r="D213" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="E213" s="100"/>
+      <c r="F213" s="101"/>
+      <c r="G213" s="101"/>
+      <c r="H213" s="102"/>
+      <c r="J213" s="116"/>
+      <c r="K213" s="116"/>
+      <c r="L213" s="116"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A214" s="9"/>
+      <c r="B214" s="44"/>
+      <c r="C214" s="10"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="100"/>
+      <c r="F214" s="101"/>
+      <c r="G214" s="101"/>
+      <c r="H214" s="102"/>
+      <c r="J214" s="116"/>
+      <c r="K214" s="116"/>
+      <c r="L214" s="116"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A215" s="9"/>
+      <c r="B215" s="8"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="45"/>
+      <c r="E215" s="103"/>
+      <c r="F215" s="104"/>
+      <c r="G215" s="104"/>
+      <c r="H215" s="105"/>
+      <c r="J215" s="116"/>
+      <c r="K215" s="116"/>
+      <c r="L215" s="116"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A216" s="30"/>
+      <c r="B216" s="30"/>
+      <c r="C216" s="30"/>
+      <c r="D216" s="30"/>
+      <c r="J216" s="116"/>
+      <c r="K216" s="116"/>
+      <c r="L216" s="116"/>
+    </row>
+    <row r="217" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A217" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B217" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C217" s="16"/>
+      <c r="D217" s="16"/>
+      <c r="E217" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="F217" s="106"/>
+      <c r="G217" s="106"/>
+      <c r="H217" s="107"/>
+      <c r="J217" s="116"/>
+      <c r="K217" s="116"/>
+      <c r="L217" s="116"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A218" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B218" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E218" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="F218" s="109"/>
+      <c r="G218" s="109"/>
+      <c r="H218" s="110"/>
+      <c r="J218" s="116"/>
+      <c r="K218" s="116"/>
+      <c r="L218" s="116"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A219" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B219" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C219" s="22">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D219" s="27">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E219" s="108"/>
+      <c r="F219" s="109"/>
+      <c r="G219" s="109"/>
+      <c r="H219" s="110"/>
+      <c r="J219" s="116"/>
+      <c r="K219" s="116"/>
+      <c r="L219" s="116"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A220" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B220" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C220" s="24">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D220" s="24">
+        <v>0.6875</v>
+      </c>
+      <c r="E220" s="108"/>
+      <c r="F220" s="109"/>
+      <c r="G220" s="109"/>
+      <c r="H220" s="110"/>
+      <c r="J220" s="116"/>
+      <c r="K220" s="116"/>
+      <c r="L220" s="116"/>
+    </row>
+    <row r="221" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A221" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B221" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C221" s="24">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D221" s="24">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="E221" s="111" t="s">
+        <v>79</v>
+      </c>
+      <c r="F221" s="112"/>
+      <c r="G221" s="112"/>
+      <c r="H221" s="112"/>
+      <c r="I221" s="29"/>
+      <c r="J221" s="116"/>
+      <c r="K221" s="116"/>
+      <c r="L221" s="116"/>
+    </row>
+    <row r="222" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A222" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B222" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C222" s="24">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D164" s="41">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="E164" s="79" t="s">
+      <c r="D222" s="24">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E222" s="108"/>
+      <c r="F222" s="109"/>
+      <c r="G222" s="109"/>
+      <c r="H222" s="109"/>
+      <c r="I222" s="29"/>
+      <c r="J222" s="116"/>
+      <c r="K222" s="116"/>
+      <c r="L222" s="116"/>
+    </row>
+    <row r="223" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A223" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B223" s="28"/>
+      <c r="C223" s="24"/>
+      <c r="D223" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="E223" s="108"/>
+      <c r="F223" s="109"/>
+      <c r="G223" s="109"/>
+      <c r="H223" s="109"/>
+      <c r="I223" s="29"/>
+      <c r="J223" s="116"/>
+      <c r="K223" s="116"/>
+      <c r="L223" s="116"/>
+    </row>
+    <row r="224" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A224" s="20"/>
+      <c r="B224" s="28"/>
+      <c r="C224" s="24"/>
+      <c r="D224" s="22"/>
+      <c r="E224" s="113"/>
+      <c r="F224" s="114"/>
+      <c r="G224" s="114"/>
+      <c r="H224" s="114"/>
+      <c r="I224" s="29"/>
+      <c r="J224" s="116"/>
+      <c r="K224" s="116"/>
+      <c r="L224" s="116"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A225" s="30"/>
+      <c r="D225" s="14"/>
+      <c r="E225" s="14"/>
+      <c r="F225" s="14"/>
+      <c r="G225" s="14"/>
+      <c r="H225" s="14"/>
+      <c r="J225" s="116"/>
+      <c r="K225" s="116"/>
+      <c r="L225" s="116"/>
+    </row>
+    <row r="226" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A226" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B226" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C226" s="32"/>
+      <c r="D226" s="32"/>
+      <c r="E226" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="F226" s="82"/>
+      <c r="G226" s="82"/>
+      <c r="H226" s="82"/>
+      <c r="I226" s="29"/>
+      <c r="J226" s="116"/>
+      <c r="K226" s="116"/>
+      <c r="L226" s="116"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A227" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B227" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E227" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="F227" s="76"/>
+      <c r="G227" s="76"/>
+      <c r="H227" s="77"/>
+      <c r="J227" s="116"/>
+      <c r="K227" s="116"/>
+      <c r="L227" s="116"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A228" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B228" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C228" s="38">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D228" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E228" s="75"/>
+      <c r="F228" s="76"/>
+      <c r="G228" s="76"/>
+      <c r="H228" s="77"/>
+      <c r="J228" s="116"/>
+      <c r="K228" s="116"/>
+      <c r="L228" s="116"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A229" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B229" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C229" s="41">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D229" s="42">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="E229" s="78"/>
+      <c r="F229" s="79"/>
+      <c r="G229" s="79"/>
+      <c r="H229" s="80"/>
+      <c r="J229" s="116"/>
+      <c r="K229" s="116"/>
+      <c r="L229" s="116"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A230" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B230" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C230" s="38">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="D230" s="41">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E230" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F164" s="80"/>
-      <c r="G164" s="80"/>
-      <c r="H164" s="81"/>
-      <c r="J164" s="115"/>
-      <c r="K164" s="115"/>
-      <c r="L164" s="115"/>
-    </row>
-    <row r="165" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A165" s="36"/>
-      <c r="B165" s="43"/>
-      <c r="C165" s="41"/>
-      <c r="D165" s="41"/>
-      <c r="E165" s="82"/>
-      <c r="F165" s="83"/>
-      <c r="G165" s="83"/>
-      <c r="H165" s="84"/>
-      <c r="J165" s="115"/>
-      <c r="K165" s="115"/>
-      <c r="L165" s="115"/>
-    </row>
-    <row r="166" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A166" s="40"/>
-      <c r="B166" s="43"/>
-      <c r="C166" s="38"/>
-      <c r="D166" s="41"/>
-      <c r="E166" s="85"/>
-      <c r="F166" s="86"/>
-      <c r="G166" s="86"/>
-      <c r="H166" s="87"/>
-      <c r="J166" s="115"/>
-      <c r="K166" s="115"/>
-      <c r="L166" s="115"/>
-    </row>
-    <row r="167" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C167" s="14"/>
-      <c r="J167" s="115"/>
-      <c r="K167" s="115"/>
-      <c r="L167" s="115"/>
-    </row>
-    <row r="168" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="127" t="s">
-        <v>39</v>
-      </c>
-      <c r="B168" s="127"/>
-      <c r="C168" s="48"/>
-      <c r="D168" s="48"/>
-      <c r="E168" s="106" t="s">
-        <v>54</v>
-      </c>
-      <c r="F168" s="106"/>
-      <c r="G168" s="106"/>
-      <c r="H168" s="106"/>
-      <c r="I168" s="29"/>
-      <c r="J168" s="115"/>
-      <c r="K168" s="115"/>
-      <c r="L168" s="115"/>
-    </row>
-    <row r="169" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A169" s="50" t="s">
+      <c r="F230" s="82"/>
+      <c r="G230" s="82"/>
+      <c r="H230" s="83"/>
+      <c r="J230" s="116"/>
+      <c r="K230" s="116"/>
+      <c r="L230" s="116"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A231" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B231" s="43"/>
+      <c r="C231" s="41"/>
+      <c r="D231" s="41">
+        <v>0.625</v>
+      </c>
+      <c r="E231" s="84"/>
+      <c r="F231" s="85"/>
+      <c r="G231" s="85"/>
+      <c r="H231" s="86"/>
+      <c r="J231" s="116"/>
+      <c r="K231" s="116"/>
+      <c r="L231" s="116"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A232" s="40"/>
+      <c r="B232" s="43"/>
+      <c r="C232" s="38"/>
+      <c r="D232" s="41"/>
+      <c r="E232" s="87"/>
+      <c r="F232" s="88"/>
+      <c r="G232" s="88"/>
+      <c r="H232" s="89"/>
+      <c r="J232" s="116"/>
+      <c r="K232" s="116"/>
+      <c r="L232" s="116"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C233" s="14"/>
+      <c r="J233" s="116"/>
+      <c r="K233" s="116"/>
+      <c r="L233" s="116"/>
+    </row>
+    <row r="234" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A234" s="74"/>
+      <c r="B234" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C234" s="48"/>
+      <c r="D234" s="48"/>
+      <c r="E234" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="F234" s="90"/>
+      <c r="G234" s="90"/>
+      <c r="H234" s="90"/>
+      <c r="I234" s="29"/>
+      <c r="J234" s="116"/>
+      <c r="K234" s="116"/>
+      <c r="L234" s="116"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A235" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B169" s="49" t="s">
+      <c r="B235" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C169" s="50" t="s">
+      <c r="C235" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D169" s="51" t="s">
+      <c r="D235" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E169" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="F169" s="100"/>
-      <c r="G169" s="100"/>
-      <c r="H169" s="101"/>
-      <c r="J169" s="115"/>
-      <c r="K169" s="115"/>
-      <c r="L169" s="115"/>
-    </row>
-    <row r="170" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A170" s="52" t="s">
+      <c r="E235" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="F235" s="92"/>
+      <c r="G235" s="92"/>
+      <c r="H235" s="93"/>
+      <c r="J235" s="116"/>
+      <c r="K235" s="116"/>
+      <c r="L235" s="116"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A236" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B170" s="53" t="s">
+      <c r="B236" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C170" s="54">
+      <c r="C236" s="54">
         <v>0.31944444444444448</v>
       </c>
-      <c r="D170" s="55">
-        <v>0.71527777777777779</v>
-      </c>
-      <c r="E170" s="99"/>
-      <c r="F170" s="100"/>
-      <c r="G170" s="100"/>
-      <c r="H170" s="101"/>
-      <c r="J170" s="115"/>
-      <c r="K170" s="115"/>
-      <c r="L170" s="115"/>
-    </row>
-    <row r="171" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A171" s="56" t="s">
+      <c r="D236" s="55">
+        <v>0.6875</v>
+      </c>
+      <c r="E236" s="94"/>
+      <c r="F236" s="95"/>
+      <c r="G236" s="95"/>
+      <c r="H236" s="96"/>
+      <c r="J236" s="116"/>
+      <c r="K236" s="116"/>
+      <c r="L236" s="116"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A237" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B171" s="59" t="s">
+      <c r="B237" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C171" s="57">
+      <c r="C237" s="57">
         <v>0.34027777777777773</v>
       </c>
-      <c r="D171" s="58">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="E171" s="102"/>
-      <c r="F171" s="103"/>
-      <c r="G171" s="103"/>
-      <c r="H171" s="104"/>
-      <c r="J171" s="115"/>
-      <c r="K171" s="115"/>
-      <c r="L171" s="115"/>
-    </row>
-    <row r="172" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="56"/>
-      <c r="B172" s="59"/>
-      <c r="C172" s="54"/>
-      <c r="D172" s="57"/>
-      <c r="E172" s="105" t="s">
+      <c r="D237" s="58">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="E237" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="F172" s="106"/>
-      <c r="G172" s="106"/>
-      <c r="H172" s="107"/>
-      <c r="J172" s="115"/>
-      <c r="K172" s="115"/>
-      <c r="L172" s="115"/>
-    </row>
-    <row r="173" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="52"/>
-      <c r="B173" s="59"/>
-      <c r="C173" s="57"/>
-      <c r="D173" s="57"/>
-      <c r="E173" s="108"/>
-      <c r="F173" s="109"/>
-      <c r="G173" s="109"/>
-      <c r="H173" s="110"/>
-      <c r="J173" s="115"/>
-      <c r="K173" s="115"/>
-      <c r="L173" s="115"/>
-    </row>
-    <row r="174" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="56"/>
-      <c r="B174" s="59"/>
-      <c r="C174" s="57"/>
-      <c r="D174" s="57"/>
-      <c r="E174" s="111"/>
-      <c r="F174" s="112"/>
-      <c r="G174" s="112"/>
-      <c r="H174" s="113"/>
-      <c r="J174" s="115"/>
-      <c r="K174" s="115"/>
-      <c r="L174" s="115"/>
-    </row>
-    <row r="176" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.4"/>
+      <c r="F237" s="92"/>
+      <c r="G237" s="92"/>
+      <c r="H237" s="93"/>
+      <c r="J237" s="116"/>
+      <c r="K237" s="116"/>
+      <c r="L237" s="116"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A238" s="56"/>
+      <c r="B238" s="59"/>
+      <c r="C238" s="57"/>
+      <c r="D238" s="57"/>
+      <c r="E238" s="94"/>
+      <c r="F238" s="95"/>
+      <c r="G238" s="95"/>
+      <c r="H238" s="96"/>
+      <c r="J238" s="116"/>
+      <c r="K238" s="116"/>
+      <c r="L238" s="116"/>
+    </row>
+    <row r="240" spans="1:12" s="137" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="A82:D83"/>
-    <mergeCell ref="E79:H83"/>
+  <mergeCells count="90">
+    <mergeCell ref="E179:H182"/>
+    <mergeCell ref="E124:H126"/>
+    <mergeCell ref="E127:H129"/>
+    <mergeCell ref="E184:H184"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="E167:H167"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="E105:H107"/>
+    <mergeCell ref="E108:H112"/>
     <mergeCell ref="E56:H58"/>
     <mergeCell ref="E59:H61"/>
     <mergeCell ref="A55:B55"/>
@@ -4552,8 +5771,6 @@
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="E30:H32"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="E168:H168"/>
     <mergeCell ref="J65:L98"/>
     <mergeCell ref="E86:H86"/>
     <mergeCell ref="E87:H89"/>
@@ -4565,31 +5782,52 @@
     <mergeCell ref="E69:H73"/>
     <mergeCell ref="E75:H75"/>
     <mergeCell ref="E76:H78"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="E105:H107"/>
-    <mergeCell ref="E108:H112"/>
-    <mergeCell ref="E169:H171"/>
-    <mergeCell ref="E172:H174"/>
     <mergeCell ref="E95:H96"/>
     <mergeCell ref="E97:H99"/>
+    <mergeCell ref="A82:D83"/>
+    <mergeCell ref="E79:H83"/>
     <mergeCell ref="J104:L136"/>
-    <mergeCell ref="J142:L174"/>
+    <mergeCell ref="J142:L171"/>
     <mergeCell ref="E142:H142"/>
     <mergeCell ref="E143:H145"/>
-    <mergeCell ref="E146:H150"/>
-    <mergeCell ref="E152:H152"/>
-    <mergeCell ref="E153:H155"/>
-    <mergeCell ref="E156:H158"/>
-    <mergeCell ref="E160:H160"/>
-    <mergeCell ref="E161:H163"/>
-    <mergeCell ref="E164:H166"/>
+    <mergeCell ref="E146:H149"/>
+    <mergeCell ref="E151:H151"/>
+    <mergeCell ref="E152:H154"/>
+    <mergeCell ref="E155:H157"/>
+    <mergeCell ref="E159:H159"/>
+    <mergeCell ref="E160:H162"/>
+    <mergeCell ref="E163:H165"/>
     <mergeCell ref="E104:H104"/>
-    <mergeCell ref="E124:H126"/>
-    <mergeCell ref="E127:H129"/>
     <mergeCell ref="E123:H123"/>
     <mergeCell ref="E114:H114"/>
     <mergeCell ref="E115:H117"/>
     <mergeCell ref="E118:H121"/>
+    <mergeCell ref="E168:H169"/>
+    <mergeCell ref="E170:H171"/>
+    <mergeCell ref="J175:L204"/>
+    <mergeCell ref="E208:H208"/>
+    <mergeCell ref="E209:H211"/>
+    <mergeCell ref="J208:L238"/>
+    <mergeCell ref="E185:H187"/>
+    <mergeCell ref="E188:H190"/>
+    <mergeCell ref="E192:H192"/>
+    <mergeCell ref="E193:H195"/>
+    <mergeCell ref="E196:H198"/>
+    <mergeCell ref="E200:H200"/>
+    <mergeCell ref="E201:H202"/>
+    <mergeCell ref="E203:H204"/>
+    <mergeCell ref="E175:H175"/>
+    <mergeCell ref="E176:H178"/>
+    <mergeCell ref="E212:H215"/>
+    <mergeCell ref="E217:H217"/>
+    <mergeCell ref="E218:H220"/>
+    <mergeCell ref="E226:H226"/>
+    <mergeCell ref="E221:H224"/>
+    <mergeCell ref="E227:H229"/>
+    <mergeCell ref="E230:H232"/>
+    <mergeCell ref="E234:H234"/>
+    <mergeCell ref="E235:H236"/>
+    <mergeCell ref="E237:H238"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
